--- a/REGULAR/ALCALA, DANIEL.xlsx
+++ b/REGULAR/ALCALA, DANIEL.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317F5A6C-65FB-4048-9C0C-743A8A3FDE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="11016" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -19,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="378">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1168,19 +1166,22 @@
   </si>
   <si>
     <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1553,6 +1554,18 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1589,18 +1602,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1629,7 +1630,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1646,7 +1647,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1661,7 +1662,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -1703,7 +1704,7 @@
           <bgColor theme="0" tint="-0.249977111117893"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1763,7 +1764,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1776,7 +1777,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1791,7 +1792,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1809,7 +1810,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1826,7 +1827,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1845,7 +1846,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1862,7 +1863,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1878,7 +1879,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1895,7 +1896,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -1914,7 +1915,7 @@
         <b/>
       </font>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1931,7 +1932,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -1947,7 +1948,7 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
@@ -2004,7 +2005,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2049,7 +2050,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,7 +2093,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2156,7 +2157,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2216,7 +2217,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2282,7 +2283,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2345,7 +2346,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2443,7 +2444,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2502,7 +2503,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2567,7 +2568,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2610,7 +2611,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2685,7 +2686,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2872,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2937,7 +2938,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2995,7 +2996,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3061,7 +3062,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3117,7 +3118,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3192,7 +3193,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3236,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3301,7 +3302,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3357,7 +3358,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3455,7 +3456,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3519,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3567,7 +3568,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -3584,25 +3585,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K522" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K534" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
-      <calculatedColumnFormula>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+      <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
-      <calculatedColumnFormula>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+      <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3614,13 +3615,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3629,14 +3630,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3933,14 +3934,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3950,7 +3951,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3958,19 +3959,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K522"/>
+  <dimension ref="A2:K534"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <pane ySplit="1728" topLeftCell="A471" activePane="bottomLeft"/>
-      <selection activeCell="E9" sqref="E9:E397"/>
-      <selection pane="bottomLeft" activeCell="C508" sqref="C508"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1728" topLeftCell="A151" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
@@ -3985,64 +3986,64 @@
     <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="55"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="59"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="J4" s="59"/>
+      <c r="K4" s="60"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4050,7 +4051,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4063,24 +4064,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4115,7 +4116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4123,8 +4124,8 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM([EARNED])-SUM([Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.991999999999962</v>
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>104.49199999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4133,13 +4134,13 @@
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM([[EARNED ]])-SUM([Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>226.75</v>
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>244.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
         <v>43</v>
       </c>
@@ -4161,7 +4162,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>34578</v>
       </c>
@@ -4179,10 +4180,10 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
-        <f>EDATE(A11,1)</f>
-        <v>34608</v>
+        <f>EOMONTH(A11,1)</f>
+        <v>34638</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="13">
@@ -4200,10 +4201,10 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
-        <f t="shared" ref="A13:A14" si="0">EDATE(A12,1)</f>
-        <v>34639</v>
+        <f>EOMONTH(A12,1)</f>
+        <v>34668</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13">
@@ -4221,10 +4222,10 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
-        <f t="shared" si="0"/>
-        <v>34669</v>
+        <f>EOMONTH(A13,1)</f>
+        <v>34699</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="13">
@@ -4242,7 +4243,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="48" t="s">
         <v>44</v>
       </c>
@@ -4260,9 +4261,9 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="41">
-        <v>34700</v>
+        <v>34730</v>
       </c>
       <c r="B16" s="15"/>
       <c r="C16" s="42">
@@ -4280,10 +4281,10 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
-        <f>EDATE(A16,1)</f>
-        <v>34731</v>
+        <f>EOMONTH(A16,1)</f>
+        <v>34758</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="42">
@@ -4301,10 +4302,10 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
-        <f t="shared" ref="A18:A27" si="1">EDATE(A17,1)</f>
-        <v>34759</v>
+        <f>EOMONTH(A17,1)</f>
+        <v>34789</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="42">
@@ -4322,10 +4323,10 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
-        <f t="shared" si="1"/>
-        <v>34790</v>
+        <f>EOMONTH(A18,1)</f>
+        <v>34819</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="42">
@@ -4343,10 +4344,10 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
-        <f t="shared" si="1"/>
-        <v>34820</v>
+        <f>EOMONTH(A19,1)</f>
+        <v>34850</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="42">
@@ -4364,10 +4365,10 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" si="1"/>
-        <v>34851</v>
+        <f>EOMONTH(A20,1)</f>
+        <v>34880</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="42">
@@ -4385,10 +4386,10 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
-        <f t="shared" si="1"/>
-        <v>34881</v>
+        <f>EOMONTH(A21,1)</f>
+        <v>34911</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="42">
@@ -4406,10 +4407,10 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
-        <f t="shared" si="1"/>
-        <v>34912</v>
+        <f>EOMONTH(A22,1)</f>
+        <v>34942</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="42">
@@ -4427,10 +4428,10 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
-        <f t="shared" si="1"/>
-        <v>34943</v>
+        <f>EOMONTH(A23,1)</f>
+        <v>34972</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>45</v>
@@ -4452,10 +4453,10 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
-        <f t="shared" si="1"/>
-        <v>34973</v>
+        <f>EOMONTH(A24,1)</f>
+        <v>35003</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="42">
@@ -4473,10 +4474,10 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
-        <f t="shared" si="1"/>
-        <v>35004</v>
+        <f>EOMONTH(A25,1)</f>
+        <v>35033</v>
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="42">
@@ -4494,10 +4495,10 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
-        <f t="shared" si="1"/>
-        <v>35034</v>
+        <f>EOMONTH(A26,1)</f>
+        <v>35064</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="42">
@@ -4515,7 +4516,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="48" t="s">
         <v>46</v>
       </c>
@@ -4533,7 +4534,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>35065</v>
       </c>
@@ -4553,10 +4554,10 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
-        <f>EDATE(A29,1)</f>
-        <v>35096</v>
+        <f>EOMONTH(A29,1)</f>
+        <v>35124</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13">
@@ -4574,10 +4575,10 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
-        <f t="shared" ref="A31:A42" si="2">EDATE(A30,1)</f>
-        <v>35125</v>
+        <f>EOMONTH(A30,1)</f>
+        <v>35155</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13">
@@ -4595,10 +4596,10 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
-        <f t="shared" si="2"/>
-        <v>35156</v>
+        <f>EOMONTH(A31,1)</f>
+        <v>35185</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13">
@@ -4616,10 +4617,10 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f t="shared" si="2"/>
-        <v>35186</v>
+        <f>EOMONTH(A32,1)</f>
+        <v>35216</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13">
@@ -4637,10 +4638,10 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <f t="shared" si="2"/>
-        <v>35217</v>
+        <f>EOMONTH(A33,1)</f>
+        <v>35246</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13">
@@ -4658,10 +4659,10 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
-        <f t="shared" si="2"/>
-        <v>35247</v>
+        <f>EOMONTH(A34,1)</f>
+        <v>35277</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13">
@@ -4679,10 +4680,10 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
-        <f t="shared" si="2"/>
-        <v>35278</v>
+        <f>EOMONTH(A35,1)</f>
+        <v>35308</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13">
@@ -4700,10 +4701,10 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
-        <f t="shared" si="2"/>
-        <v>35309</v>
+        <f>EOMONTH(A36,1)</f>
+        <v>35338</v>
       </c>
       <c r="B37" s="20" t="s">
         <v>47</v>
@@ -4725,7 +4726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>49</v>
@@ -4747,10 +4748,10 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f>EDATE(A37,1)</f>
-        <v>35339</v>
+        <f>EOMONTH(A37,1)</f>
+        <v>35369</v>
       </c>
       <c r="B39" s="20" t="s">
         <v>51</v>
@@ -4774,7 +4775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>53</v>
@@ -4796,10 +4797,10 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <f>EDATE(A39,1)</f>
-        <v>35370</v>
+        <f>EOMONTH(A39,1)</f>
+        <v>35399</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13">
@@ -4817,10 +4818,10 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f t="shared" si="2"/>
-        <v>35400</v>
+        <f>EOMONTH(A41,1)</f>
+        <v>35430</v>
       </c>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -4844,7 +4845,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>57</v>
@@ -4864,7 +4865,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="48" t="s">
         <v>59</v>
       </c>
@@ -4882,7 +4883,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>35431</v>
       </c>
@@ -4902,10 +4903,10 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
-        <f>EDATE(A45,1)</f>
-        <v>35462</v>
+        <f>EOMONTH(A45,1)</f>
+        <v>35489</v>
       </c>
       <c r="B46" s="20" t="s">
         <v>60</v>
@@ -4929,10 +4930,10 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
-        <f t="shared" ref="A47:A56" si="3">EDATE(A46,1)</f>
-        <v>35490</v>
+        <f>EOMONTH(A46,1)</f>
+        <v>35520</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13">
@@ -4950,10 +4951,10 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
-        <f t="shared" si="3"/>
-        <v>35521</v>
+        <f>EOMONTH(A47,1)</f>
+        <v>35550</v>
       </c>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -4977,10 +4978,10 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
-        <f t="shared" si="3"/>
-        <v>35551</v>
+        <f>EOMONTH(A48,1)</f>
+        <v>35581</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13">
@@ -4998,10 +4999,10 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
-        <f t="shared" si="3"/>
-        <v>35582</v>
+        <f>EOMONTH(A49,1)</f>
+        <v>35611</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13">
@@ -5019,10 +5020,10 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
-        <f t="shared" si="3"/>
-        <v>35612</v>
+        <f>EOMONTH(A50,1)</f>
+        <v>35642</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13">
@@ -5040,10 +5041,10 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
-        <f t="shared" si="3"/>
-        <v>35643</v>
+        <f>EOMONTH(A51,1)</f>
+        <v>35673</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>51</v>
@@ -5067,10 +5068,10 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
-        <f t="shared" si="3"/>
-        <v>35674</v>
+        <f>EOMONTH(A52,1)</f>
+        <v>35703</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>47</v>
@@ -5092,12 +5093,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <f t="shared" si="3"/>
-        <v>35704</v>
-      </c>
-      <c r="B54" s="61" t="s">
+        <f>EOMONTH(A53,1)</f>
+        <v>35734</v>
+      </c>
+      <c r="B54" s="49" t="s">
         <v>66</v>
       </c>
       <c r="C54" s="13">
@@ -5119,10 +5120,10 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <f t="shared" si="3"/>
-        <v>35735</v>
+        <f>EOMONTH(A54,1)</f>
+        <v>35764</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13">
@@ -5140,10 +5141,10 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <f t="shared" si="3"/>
-        <v>35765</v>
+        <f>EOMONTH(A55,1)</f>
+        <v>35795</v>
       </c>
       <c r="B56" s="20" t="s">
         <v>45</v>
@@ -5167,7 +5168,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>69</v>
@@ -5187,7 +5188,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="48" t="s">
         <v>70</v>
       </c>
@@ -5205,7 +5206,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>35796</v>
       </c>
@@ -5229,10 +5230,10 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
-        <f>EDATE(A59,1)</f>
-        <v>35827</v>
+        <f>EOMONTH(A59,1)</f>
+        <v>35854</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>55</v>
@@ -5256,10 +5257,10 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
-        <f>EDATE(A60,1)</f>
-        <v>35855</v>
+        <f>EOMONTH(A60,1)</f>
+        <v>35885</v>
       </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13">
@@ -5277,10 +5278,10 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
-        <f t="shared" ref="A62:A68" si="4">EDATE(A61,1)</f>
-        <v>35886</v>
+        <f>EOMONTH(A61,1)</f>
+        <v>35915</v>
       </c>
       <c r="B62" s="20" t="s">
         <v>73</v>
@@ -5304,10 +5305,10 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
-        <f t="shared" si="4"/>
-        <v>35916</v>
+        <f>EOMONTH(A62,1)</f>
+        <v>35946</v>
       </c>
       <c r="B63" s="20"/>
       <c r="C63" s="13">
@@ -5325,10 +5326,10 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <f t="shared" si="4"/>
-        <v>35947</v>
+        <f>EOMONTH(A63,1)</f>
+        <v>35976</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>62</v>
@@ -5352,10 +5353,10 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <f t="shared" si="4"/>
-        <v>35977</v>
+        <f>EOMONTH(A64,1)</f>
+        <v>36007</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>62</v>
@@ -5375,11 +5376,11 @@
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="11"/>
-      <c r="K65" s="62">
+      <c r="K65" s="50">
         <v>36075</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>76</v>
@@ -5399,10 +5400,10 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <f>EDATE(A65,1)</f>
-        <v>36008</v>
+        <f>EOMONTH(A65,1)</f>
+        <v>36038</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>51</v>
@@ -5424,10 +5425,10 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <f t="shared" si="4"/>
-        <v>36039</v>
+        <f>EOMONTH(A67,1)</f>
+        <v>36068</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>47</v>
@@ -5449,7 +5450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>51</v>
@@ -5471,10 +5472,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <f>EDATE(A68,1)</f>
-        <v>36069</v>
+        <f>EOMONTH(A68,1)</f>
+        <v>36099</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>60</v>
@@ -5498,7 +5499,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>80</v>
@@ -5518,10 +5519,10 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
-        <f>EDATE(A70,1)</f>
-        <v>36100</v>
+        <f>EOMONTH(A70,1)</f>
+        <v>36129</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>81</v>
@@ -5545,7 +5546,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>83</v>
@@ -5565,10 +5566,10 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <f>EDATE(A72,1)</f>
-        <v>36130</v>
+        <f>EOMONTH(A72,1)</f>
+        <v>36160</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>84</v>
@@ -5592,7 +5593,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:11">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>86</v>
@@ -5614,7 +5615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="76" spans="1:11">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>51</v>
@@ -5632,11 +5633,11 @@
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="61" t="s">
+      <c r="K76" s="49" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="77" spans="1:11">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="48" t="s">
         <v>89</v>
       </c>
@@ -5654,7 +5655,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>36161</v>
       </c>
@@ -5680,10 +5681,10 @@
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:11">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <f>EDATE(A78,1)</f>
-        <v>36192</v>
+        <f>EOMONTH(A78,1)</f>
+        <v>36219</v>
       </c>
       <c r="B79" s="20" t="s">
         <v>55</v>
@@ -5707,7 +5708,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="80" spans="1:11">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>92</v>
@@ -5729,7 +5730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" spans="1:11">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>94</v>
@@ -5749,10 +5750,10 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <f>EDATE(A79,1)</f>
-        <v>36220</v>
+        <f>EOMONTH(A79,1)</f>
+        <v>36250</v>
       </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13">
@@ -5770,10 +5771,10 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
-        <f t="shared" ref="A83:A87" si="5">EDATE(A82,1)</f>
-        <v>36251</v>
+        <f>EOMONTH(A82,1)</f>
+        <v>36280</v>
       </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13">
@@ -5791,10 +5792,10 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <f t="shared" si="5"/>
-        <v>36281</v>
+        <f>EOMONTH(A83,1)</f>
+        <v>36311</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -5812,10 +5813,10 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
-        <f t="shared" si="5"/>
-        <v>36312</v>
+        <f>EOMONTH(A84,1)</f>
+        <v>36341</v>
       </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13">
@@ -5833,10 +5834,10 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <f t="shared" si="5"/>
-        <v>36342</v>
+        <f>EOMONTH(A85,1)</f>
+        <v>36372</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>95</v>
@@ -5860,10 +5861,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="87" spans="1:11">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <f t="shared" si="5"/>
-        <v>36373</v>
+        <f>EOMONTH(A86,1)</f>
+        <v>36403</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>62</v>
@@ -5887,7 +5888,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:11">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>97</v>
@@ -5907,10 +5908,10 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <f>EDATE(A87,1)</f>
-        <v>36404</v>
+        <f>EOMONTH(A87,1)</f>
+        <v>36433</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>51</v>
@@ -5932,7 +5933,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="90" spans="1:11">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13">
@@ -5950,10 +5951,10 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <f>EDATE(A89,1)</f>
-        <v>36434</v>
+        <f>EOMONTH(A89,1)</f>
+        <v>36464</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>51</v>
@@ -5975,7 +5976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:11">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>101</v>
@@ -5997,7 +5998,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:11">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20" t="s">
         <v>62</v>
@@ -6021,10 +6022,10 @@
         <v>103</v>
       </c>
     </row>
-    <row r="94" spans="1:11">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <f>EDATE(A91,1)</f>
-        <v>36465</v>
+        <f>EOMONTH(A91,1)</f>
+        <v>36494</v>
       </c>
       <c r="B94" s="20" t="s">
         <v>51</v>
@@ -6046,7 +6047,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:11">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>105</v>
@@ -6066,7 +6067,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13">
@@ -6084,10 +6085,10 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <f>EDATE(A94,1)</f>
-        <v>36495</v>
+        <f>EOMONTH(A94,1)</f>
+        <v>36525</v>
       </c>
       <c r="B97" s="20" t="s">
         <v>106</v>
@@ -6109,7 +6110,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="98" spans="1:11">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13">
@@ -6127,7 +6128,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="48" t="s">
         <v>108</v>
       </c>
@@ -6145,7 +6146,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>36526</v>
       </c>
@@ -6169,7 +6170,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="101" spans="1:11">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20" t="s">
         <v>55</v>
@@ -6191,7 +6192,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="102" spans="1:11">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>51</v>
@@ -6215,7 +6216,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:11">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>112</v>
@@ -6235,10 +6236,10 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
-        <f>EDATE(A100,1)</f>
-        <v>36557</v>
+        <f>EOMONTH(A100,1)</f>
+        <v>36585</v>
       </c>
       <c r="B104" s="20" t="s">
         <v>55</v>
@@ -6260,7 +6261,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:11">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>51</v>
@@ -6282,7 +6283,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:11">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>115</v>
@@ -6304,7 +6305,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:11">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>117</v>
@@ -6326,10 +6327,10 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <f>EDATE(A104,1)</f>
-        <v>36586</v>
+        <f>EOMONTH(A104,1)</f>
+        <v>36616</v>
       </c>
       <c r="B108" s="20" t="s">
         <v>62</v>
@@ -6347,11 +6348,11 @@
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="11"/>
-      <c r="K108" s="62">
+      <c r="K108" s="50">
         <v>36619</v>
       </c>
     </row>
-    <row r="109" spans="1:11">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>118</v>
@@ -6373,10 +6374,10 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <f>EDATE(A108,1)</f>
-        <v>36617</v>
+        <f>EOMONTH(A108,1)</f>
+        <v>36646</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>62</v>
@@ -6394,11 +6395,11 @@
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="11"/>
-      <c r="K110" s="62">
+      <c r="K110" s="50">
         <v>36864</v>
       </c>
     </row>
-    <row r="111" spans="1:11">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>62</v>
@@ -6416,11 +6417,11 @@
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="11"/>
-      <c r="K111" s="62">
+      <c r="K111" s="50">
         <v>36620</v>
       </c>
     </row>
-    <row r="112" spans="1:11">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>62</v>
@@ -6442,7 +6443,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="1:11">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20" t="s">
         <v>120</v>
@@ -6464,10 +6465,10 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <f>EDATE(A110,1)</f>
-        <v>36647</v>
+        <f>EOMONTH(A110,1)</f>
+        <v>36677</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>51</v>
@@ -6489,7 +6490,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="115" spans="1:11">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>81</v>
@@ -6509,11 +6510,11 @@
       <c r="H115" s="39"/>
       <c r="I115" s="9"/>
       <c r="J115" s="11"/>
-      <c r="K115" s="62">
+      <c r="K115" s="50">
         <v>36562</v>
       </c>
     </row>
-    <row r="116" spans="1:11">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>122</v>
@@ -6531,12 +6532,12 @@
       <c r="H116" s="39"/>
       <c r="I116" s="9"/>
       <c r="J116" s="11"/>
-      <c r="K116" s="62"/>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="K116" s="50"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
-        <f>EDATE(A114,1)</f>
-        <v>36678</v>
+        <f>EOMONTH(A114,1)</f>
+        <v>36707</v>
       </c>
       <c r="B117" s="20" t="s">
         <v>123</v>
@@ -6558,7 +6559,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:11">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>125</v>
@@ -6580,10 +6581,10 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <f>EDATE(A117,1)</f>
-        <v>36708</v>
+        <f>EOMONTH(A117,1)</f>
+        <v>36738</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>62</v>
@@ -6605,7 +6606,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:11">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>62</v>
@@ -6627,7 +6628,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="121" spans="1:11">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>128</v>
@@ -6649,10 +6650,10 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <f>EDATE(A119,1)</f>
-        <v>36739</v>
+        <f>EOMONTH(A119,1)</f>
+        <v>36769</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>62</v>
@@ -6674,7 +6675,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="123" spans="1:11">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>130</v>
@@ -6696,7 +6697,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="124" spans="1:11">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>129</v>
@@ -6718,10 +6719,10 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
-        <f>EDATE(A122,1)</f>
-        <v>36770</v>
+        <f>EOMONTH(A122,1)</f>
+        <v>36799</v>
       </c>
       <c r="B125" s="20" t="s">
         <v>47</v>
@@ -6741,7 +6742,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="126" spans="1:11">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>62</v>
@@ -6759,11 +6760,11 @@
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="62">
+      <c r="K126" s="50">
         <v>36747</v>
       </c>
     </row>
-    <row r="127" spans="1:11">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>133</v>
@@ -6785,10 +6786,10 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <f>EDATE(A125,1)</f>
-        <v>36800</v>
+        <f>EOMONTH(A125,1)</f>
+        <v>36830</v>
       </c>
       <c r="B128" s="20" t="s">
         <v>55</v>
@@ -6810,7 +6811,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="129" spans="1:11">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20" t="s">
         <v>51</v>
@@ -6832,7 +6833,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="130" spans="1:11">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20" t="s">
         <v>123</v>
@@ -6854,7 +6855,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="131" spans="1:11">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>135</v>
@@ -6876,10 +6877,10 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <f>EDATE(A128,1)</f>
-        <v>36831</v>
+        <f>EOMONTH(A128,1)</f>
+        <v>36860</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>139</v>
@@ -6901,10 +6902,10 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <f t="shared" ref="A133" si="6">EDATE(A132,1)</f>
-        <v>36861</v>
+        <f>EOMONTH(A132,1)</f>
+        <v>36891</v>
       </c>
       <c r="B133" s="20" t="s">
         <v>140</v>
@@ -6926,7 +6927,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="48" t="s">
         <v>141</v>
       </c>
@@ -6944,7 +6945,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>36892</v>
       </c>
@@ -6968,7 +6969,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="136" spans="1:11">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>62</v>
@@ -6988,11 +6989,11 @@
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
-      <c r="K136" s="62">
+      <c r="K136" s="50">
         <v>37135</v>
       </c>
     </row>
-    <row r="137" spans="1:11">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>62</v>
@@ -7014,7 +7015,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="138" spans="1:11">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20" t="s">
         <v>51</v>
@@ -7036,7 +7037,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="139" spans="1:11">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>62</v>
@@ -7058,7 +7059,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="140" spans="1:11">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>62</v>
@@ -7080,7 +7081,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="141" spans="1:11">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>62</v>
@@ -7102,7 +7103,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:11">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20" t="s">
         <v>51</v>
@@ -7122,7 +7123,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -7140,10 +7141,10 @@
         <v>148</v>
       </c>
     </row>
-    <row r="144" spans="1:11">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
-        <f>EDATE(A135,1)</f>
-        <v>36923</v>
+        <f>EOMONTH(A135,1)</f>
+        <v>36950</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>86</v>
@@ -7165,7 +7166,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="145" spans="1:11">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13">
@@ -7183,10 +7184,10 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
-        <f>EDATE(A144,1)</f>
-        <v>36951</v>
+        <f>EOMONTH(A144,1)</f>
+        <v>36981</v>
       </c>
       <c r="B146" s="20" t="s">
         <v>51</v>
@@ -7208,7 +7209,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="147" spans="1:11">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13">
@@ -7226,10 +7227,10 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
-        <f>EDATE(A146,1)</f>
-        <v>36982</v>
+        <f>EOMONTH(A146,1)</f>
+        <v>37011</v>
       </c>
       <c r="B148" s="20" t="s">
         <v>51</v>
@@ -7251,7 +7252,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:11">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13">
@@ -7269,10 +7270,10 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
-        <f>EDATE(A148,1)</f>
-        <v>37012</v>
+        <f>EOMONTH(A148,1)</f>
+        <v>37042</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13">
@@ -7290,10 +7291,10 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
-        <f t="shared" ref="A151:A163" si="7">EDATE(A150,1)</f>
-        <v>37043</v>
+        <f>EOMONTH(A150,1)</f>
+        <v>37072</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13">
@@ -7311,10 +7312,10 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
-        <f t="shared" si="7"/>
-        <v>37073</v>
+        <f>EOMONTH(A151,1)</f>
+        <v>37103</v>
       </c>
       <c r="B152" s="20" t="s">
         <v>62</v>
@@ -7332,11 +7333,11 @@
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="62">
+      <c r="K152" s="50">
         <v>37049</v>
       </c>
     </row>
-    <row r="153" spans="1:11">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>51</v>
@@ -7358,7 +7359,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:11">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13">
@@ -7376,10 +7377,10 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
-        <f>EDATE(A152,1)</f>
-        <v>37104</v>
+        <f>EOMONTH(A152,1)</f>
+        <v>37134</v>
       </c>
       <c r="B155" s="20" t="s">
         <v>60</v>
@@ -7401,7 +7402,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:11">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>81</v>
@@ -7419,11 +7420,11 @@
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="62">
+      <c r="K156" s="50">
         <v>36900</v>
       </c>
     </row>
-    <row r="157" spans="1:11">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13">
@@ -7441,10 +7442,10 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
-        <f>EDATE(A155,1)</f>
-        <v>37135</v>
+        <f>EOMONTH(A155,1)</f>
+        <v>37164</v>
       </c>
       <c r="B158" s="20" t="s">
         <v>62</v>
@@ -7466,7 +7467,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="159" spans="1:11">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>51</v>
@@ -7488,7 +7489,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="160" spans="1:11">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13">
@@ -7506,10 +7507,10 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
-        <f>EDATE(A158,1)</f>
-        <v>37165</v>
+        <f>EOMONTH(A158,1)</f>
+        <v>37195</v>
       </c>
       <c r="B161" s="20" t="s">
         <v>135</v>
@@ -7531,10 +7532,10 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
-        <f t="shared" si="7"/>
-        <v>37196</v>
+        <f>EOMONTH(A161,1)</f>
+        <v>37225</v>
       </c>
       <c r="B162" s="20" t="s">
         <v>139</v>
@@ -7556,10 +7557,10 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
-        <f t="shared" si="7"/>
-        <v>37226</v>
+        <f>EOMONTH(A162,1)</f>
+        <v>37256</v>
       </c>
       <c r="B163" s="20" t="s">
         <v>53</v>
@@ -7581,7 +7582,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20" t="s">
         <v>140</v>
@@ -7601,7 +7602,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="48" t="s">
         <v>157</v>
       </c>
@@ -7619,7 +7620,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>37257</v>
       </c>
@@ -7643,7 +7644,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="167" spans="1:11">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>156</v>
@@ -7665,10 +7666,10 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
-        <f>EDATE(A166,1)</f>
-        <v>37288</v>
+        <f>EOMONTH(A166,1)</f>
+        <v>37315</v>
       </c>
       <c r="B168" s="20"/>
       <c r="C168" s="13">
@@ -7686,10 +7687,10 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
-        <f t="shared" ref="A169:A175" si="8">EDATE(A168,1)</f>
-        <v>37316</v>
+        <f>EOMONTH(A168,1)</f>
+        <v>37346</v>
       </c>
       <c r="B169" s="20" t="s">
         <v>51</v>
@@ -7713,10 +7714,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="170" spans="1:11">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
-        <f t="shared" si="8"/>
-        <v>37347</v>
+        <f>EOMONTH(A169,1)</f>
+        <v>37376</v>
       </c>
       <c r="B170" s="20" t="s">
         <v>62</v>
@@ -7740,10 +7741,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="171" spans="1:11">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
-        <f t="shared" si="8"/>
-        <v>37377</v>
+        <f>EOMONTH(A170,1)</f>
+        <v>37407</v>
       </c>
       <c r="B171" s="20" t="s">
         <v>161</v>
@@ -7765,10 +7766,10 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
-        <f t="shared" si="8"/>
-        <v>37408</v>
+        <f>EOMONTH(A171,1)</f>
+        <v>37437</v>
       </c>
       <c r="B172" s="20"/>
       <c r="C172" s="13">
@@ -7786,10 +7787,10 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40">
-        <f t="shared" si="8"/>
-        <v>37438</v>
+        <f>EOMONTH(A172,1)</f>
+        <v>37468</v>
       </c>
       <c r="B173" s="20"/>
       <c r="C173" s="13">
@@ -7807,10 +7808,10 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
-        <f t="shared" si="8"/>
-        <v>37469</v>
+        <f>EOMONTH(A173,1)</f>
+        <v>37499</v>
       </c>
       <c r="B174" s="20"/>
       <c r="C174" s="13">
@@ -7828,10 +7829,10 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40">
-        <f t="shared" si="8"/>
-        <v>37500</v>
+        <f>EOMONTH(A174,1)</f>
+        <v>37529</v>
       </c>
       <c r="B175" s="20" t="s">
         <v>62</v>
@@ -7853,7 +7854,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="1:11">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13">
@@ -7871,10 +7872,10 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
-        <f>EDATE(A175,1)</f>
-        <v>37530</v>
+        <f>EOMONTH(A175,1)</f>
+        <v>37560</v>
       </c>
       <c r="B177" s="20" t="s">
         <v>51</v>
@@ -7896,7 +7897,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="178" spans="1:11">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13">
@@ -7914,10 +7915,10 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
-        <f>EDATE(A177,1)</f>
-        <v>37561</v>
+        <f>EOMONTH(A177,1)</f>
+        <v>37590</v>
       </c>
       <c r="B179" s="20" t="s">
         <v>164</v>
@@ -7939,10 +7940,10 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
-        <f>EDATE(A179,1)</f>
-        <v>37591</v>
+        <f>EOMONTH(A179,1)</f>
+        <v>37621</v>
       </c>
       <c r="B180" s="20" t="s">
         <v>60</v>
@@ -7964,7 +7965,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="181" spans="1:11">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>165</v>
@@ -7986,7 +7987,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="48" t="s">
         <v>166</v>
       </c>
@@ -8004,7 +8005,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>37622</v>
       </c>
@@ -8024,10 +8025,10 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
-        <f>EDATE(A183,1)</f>
-        <v>37653</v>
+        <f>EOMONTH(A183,1)</f>
+        <v>37680</v>
       </c>
       <c r="B184" s="20" t="s">
         <v>60</v>
@@ -8049,7 +8050,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="185" spans="1:11">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20" t="s">
         <v>169</v>
@@ -8071,10 +8072,10 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
-        <f>EDATE(A184,1)</f>
-        <v>37681</v>
+        <f>EOMONTH(A184,1)</f>
+        <v>37711</v>
       </c>
       <c r="B186" s="20" t="s">
         <v>168</v>
@@ -8096,10 +8097,10 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
-        <f t="shared" ref="A187:A197" si="9">EDATE(A186,1)</f>
-        <v>37712</v>
+        <f>EOMONTH(A186,1)</f>
+        <v>37741</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13">
@@ -8117,10 +8118,10 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
-        <f t="shared" si="9"/>
-        <v>37742</v>
+        <f>EOMONTH(A187,1)</f>
+        <v>37772</v>
       </c>
       <c r="B188" s="15"/>
       <c r="C188" s="13">
@@ -8138,10 +8139,10 @@
       <c r="J188" s="12"/>
       <c r="K188" s="15"/>
     </row>
-    <row r="189" spans="1:11">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
-        <f t="shared" si="9"/>
-        <v>37773</v>
+        <f>EOMONTH(A188,1)</f>
+        <v>37802</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13">
@@ -8159,10 +8160,10 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
-        <f t="shared" si="9"/>
-        <v>37803</v>
+        <f>EOMONTH(A189,1)</f>
+        <v>37833</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13">
@@ -8180,10 +8181,10 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
-        <f t="shared" si="9"/>
-        <v>37834</v>
+        <f>EOMONTH(A190,1)</f>
+        <v>37864</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13">
@@ -8201,7 +8202,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>47</v>
@@ -8221,10 +8222,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="193" spans="1:11">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
-        <f>EDATE(A191,1)</f>
-        <v>37865</v>
+        <f>EOMONTH(A191,1)</f>
+        <v>37894</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13">
@@ -8242,10 +8243,10 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
-        <f t="shared" si="9"/>
-        <v>37895</v>
+        <f>EOMONTH(A193,1)</f>
+        <v>37925</v>
       </c>
       <c r="B194" s="20" t="s">
         <v>51</v>
@@ -8267,7 +8268,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="195" spans="1:11">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20" t="s">
         <v>176</v>
@@ -8289,10 +8290,10 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
-        <f>EDATE(A194,1)</f>
-        <v>37926</v>
+        <f>EOMONTH(A194,1)</f>
+        <v>37955</v>
       </c>
       <c r="B196" s="20" t="s">
         <v>172</v>
@@ -8314,10 +8315,10 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
-        <f t="shared" si="9"/>
-        <v>37956</v>
+        <f>EOMONTH(A196,1)</f>
+        <v>37986</v>
       </c>
       <c r="B197" s="20" t="s">
         <v>174</v>
@@ -8339,7 +8340,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="48" t="s">
         <v>177</v>
       </c>
@@ -8357,7 +8358,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>37987</v>
       </c>
@@ -8381,10 +8382,10 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
-        <f>EDATE(A199,1)</f>
-        <v>38018</v>
+        <f>EOMONTH(A199,1)</f>
+        <v>38046</v>
       </c>
       <c r="B200" s="20" t="s">
         <v>51</v>
@@ -8406,7 +8407,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="201" spans="1:11">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>180</v>
@@ -8428,10 +8429,10 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
-        <f>EDATE(A200,1)</f>
-        <v>38047</v>
+        <f>EOMONTH(A200,1)</f>
+        <v>38077</v>
       </c>
       <c r="B202" s="20" t="s">
         <v>62</v>
@@ -8453,7 +8454,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="203" spans="1:11">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>182</v>
@@ -8475,10 +8476,10 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
-        <f>EDATE(A202,1)</f>
-        <v>38078</v>
+        <f>EOMONTH(A202,1)</f>
+        <v>38107</v>
       </c>
       <c r="B204" s="20" t="s">
         <v>183</v>
@@ -8500,10 +8501,10 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40">
-        <f t="shared" ref="A205:A215" si="10">EDATE(A204,1)</f>
-        <v>38108</v>
+        <f>EOMONTH(A204,1)</f>
+        <v>38138</v>
       </c>
       <c r="B205" s="20" t="s">
         <v>184</v>
@@ -8525,10 +8526,10 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
-        <f t="shared" si="10"/>
-        <v>38139</v>
+        <f>EOMONTH(A205,1)</f>
+        <v>38168</v>
       </c>
       <c r="B206" s="20" t="s">
         <v>185</v>
@@ -8550,10 +8551,10 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
-        <f t="shared" si="10"/>
-        <v>38169</v>
+        <f>EOMONTH(A206,1)</f>
+        <v>38199</v>
       </c>
       <c r="B207" s="20" t="s">
         <v>62</v>
@@ -8575,7 +8576,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="208" spans="1:11">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>55</v>
@@ -8597,7 +8598,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="209" spans="1:11">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>51</v>
@@ -8617,7 +8618,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>188</v>
@@ -8639,10 +8640,10 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
-        <f>EDATE(A207,1)</f>
-        <v>38200</v>
+        <f>EOMONTH(A207,1)</f>
+        <v>38230</v>
       </c>
       <c r="B211" s="20" t="s">
         <v>189</v>
@@ -8664,10 +8665,10 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
-        <f t="shared" si="10"/>
-        <v>38231</v>
+        <f>EOMONTH(A211,1)</f>
+        <v>38260</v>
       </c>
       <c r="B212" s="20" t="s">
         <v>190</v>
@@ -8689,10 +8690,10 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
-        <f t="shared" si="10"/>
-        <v>38261</v>
+        <f>EOMONTH(A212,1)</f>
+        <v>38291</v>
       </c>
       <c r="B213" s="20" t="s">
         <v>191</v>
@@ -8714,10 +8715,10 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
-        <f t="shared" si="10"/>
-        <v>38292</v>
+        <f>EOMONTH(A213,1)</f>
+        <v>38321</v>
       </c>
       <c r="B214" s="20" t="s">
         <v>192</v>
@@ -8739,10 +8740,10 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
-        <f t="shared" si="10"/>
-        <v>38322</v>
+        <f>EOMONTH(A214,1)</f>
+        <v>38352</v>
       </c>
       <c r="B215" s="20" t="s">
         <v>193</v>
@@ -8764,25 +8765,25 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11">
-      <c r="A216" s="64" t="s">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A216" s="52" t="s">
         <v>194</v>
       </c>
       <c r="B216" s="15"/>
       <c r="C216" s="42"/>
       <c r="D216" s="43"/>
-      <c r="E216" s="63"/>
+      <c r="E216" s="51"/>
       <c r="F216" s="15"/>
       <c r="G216" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H216" s="43"/>
-      <c r="I216" s="63"/>
+      <c r="I216" s="51"/>
       <c r="J216" s="12"/>
       <c r="K216" s="15"/>
     </row>
-    <row r="217" spans="1:11">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38353</v>
       </c>
@@ -8806,10 +8807,10 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40">
-        <f>EDATE(A217,1)</f>
-        <v>38384</v>
+        <f>EOMONTH(A217,1)</f>
+        <v>38411</v>
       </c>
       <c r="B218" s="20" t="s">
         <v>196</v>
@@ -8831,10 +8832,10 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
-        <f t="shared" ref="A219:A232" si="11">EDATE(A218,1)</f>
-        <v>38412</v>
+        <f>EOMONTH(A218,1)</f>
+        <v>38442</v>
       </c>
       <c r="B219" s="20" t="s">
         <v>197</v>
@@ -8856,10 +8857,10 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
-        <f t="shared" si="11"/>
-        <v>38443</v>
+        <f>EOMONTH(A219,1)</f>
+        <v>38472</v>
       </c>
       <c r="B220" s="20" t="s">
         <v>198</v>
@@ -8881,10 +8882,10 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
-        <f t="shared" si="11"/>
-        <v>38473</v>
+        <f>EOMONTH(A220,1)</f>
+        <v>38503</v>
       </c>
       <c r="B221" s="20" t="s">
         <v>199</v>
@@ -8906,10 +8907,10 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
-        <f t="shared" si="11"/>
-        <v>38504</v>
+        <f>EOMONTH(A221,1)</f>
+        <v>38533</v>
       </c>
       <c r="B222" s="20" t="s">
         <v>62</v>
@@ -8931,7 +8932,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="223" spans="1:11">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>200</v>
@@ -8953,10 +8954,10 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
-        <f>EDATE(A222,1)</f>
-        <v>38534</v>
+        <f>EOMONTH(A222,1)</f>
+        <v>38564</v>
       </c>
       <c r="B224" s="20" t="s">
         <v>201</v>
@@ -8978,10 +8979,10 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
-        <f t="shared" si="11"/>
-        <v>38565</v>
+        <f>EOMONTH(A224,1)</f>
+        <v>38595</v>
       </c>
       <c r="B225" s="20" t="s">
         <v>62</v>
@@ -9001,7 +9002,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>173</v>
@@ -9025,7 +9026,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="227" spans="1:11">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20" t="s">
         <v>62</v>
@@ -9047,7 +9048,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="228" spans="1:11">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20" t="s">
         <v>53</v>
@@ -9065,14 +9066,14 @@
       <c r="H228" s="39"/>
       <c r="I228" s="9"/>
       <c r="J228" s="11"/>
-      <c r="K228" s="62">
+      <c r="K228" s="50">
         <v>38392</v>
       </c>
     </row>
-    <row r="229" spans="1:11">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
-        <f>EDATE(A225,1)</f>
-        <v>38596</v>
+        <f>EOMONTH(A225,1)</f>
+        <v>38625</v>
       </c>
       <c r="B229" s="20" t="s">
         <v>202</v>
@@ -9094,10 +9095,10 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40">
-        <f t="shared" si="11"/>
-        <v>38626</v>
+        <f>EOMONTH(A229,1)</f>
+        <v>38656</v>
       </c>
       <c r="B230" s="20" t="s">
         <v>203</v>
@@ -9119,10 +9120,10 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
-        <f t="shared" si="11"/>
-        <v>38657</v>
+        <f>EOMONTH(A230,1)</f>
+        <v>38686</v>
       </c>
       <c r="B231" s="20" t="s">
         <v>204</v>
@@ -9144,10 +9145,10 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
-        <f t="shared" si="11"/>
-        <v>38687</v>
+        <f>EOMONTH(A231,1)</f>
+        <v>38717</v>
       </c>
       <c r="B232" s="20" t="s">
         <v>51</v>
@@ -9169,7 +9170,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="233" spans="1:11">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>205</v>
@@ -9191,7 +9192,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="48" t="s">
         <v>206</v>
       </c>
@@ -9209,7 +9210,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>38718</v>
       </c>
@@ -9233,10 +9234,10 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
-        <f>EDATE(A235,1)</f>
-        <v>38749</v>
+        <f>EOMONTH(A235,1)</f>
+        <v>38776</v>
       </c>
       <c r="B236" s="20" t="s">
         <v>208</v>
@@ -9258,10 +9259,10 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40">
-        <f t="shared" ref="A237:A252" si="12">EDATE(A236,1)</f>
-        <v>38777</v>
+        <f>EOMONTH(A236,1)</f>
+        <v>38807</v>
       </c>
       <c r="B237" s="20" t="s">
         <v>209</v>
@@ -9283,10 +9284,10 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
-        <f t="shared" si="12"/>
-        <v>38808</v>
+        <f>EOMONTH(A237,1)</f>
+        <v>38837</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13">
@@ -9304,7 +9305,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>62</v>
@@ -9326,7 +9327,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="240" spans="1:11">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20" t="s">
         <v>215</v>
@@ -9346,10 +9347,10 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40">
-        <f>EDATE(A238,1)</f>
-        <v>38838</v>
+        <f>EOMONTH(A238,1)</f>
+        <v>38868</v>
       </c>
       <c r="B241" s="20" t="s">
         <v>216</v>
@@ -9371,10 +9372,10 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40">
-        <f t="shared" si="12"/>
-        <v>38869</v>
+        <f>EOMONTH(A241,1)</f>
+        <v>38898</v>
       </c>
       <c r="B242" s="20" t="s">
         <v>62</v>
@@ -9392,11 +9393,11 @@
       </c>
       <c r="I242" s="9"/>
       <c r="J242" s="11"/>
-      <c r="K242" s="62">
+      <c r="K242" s="50">
         <v>38904</v>
       </c>
     </row>
-    <row r="243" spans="1:11">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20" t="s">
         <v>169</v>
@@ -9418,10 +9419,10 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40">
-        <f>EDATE(A242,1)</f>
-        <v>38899</v>
+        <f>EOMONTH(A242,1)</f>
+        <v>38929</v>
       </c>
       <c r="B244" s="20" t="s">
         <v>217</v>
@@ -9443,10 +9444,10 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40">
-        <f t="shared" si="12"/>
-        <v>38930</v>
+        <f>EOMONTH(A244,1)</f>
+        <v>38960</v>
       </c>
       <c r="B245" s="20" t="s">
         <v>47</v>
@@ -9466,7 +9467,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="246" spans="1:11">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40"/>
       <c r="B246" s="20" t="s">
         <v>62</v>
@@ -9482,11 +9483,11 @@
       <c r="H246" s="39"/>
       <c r="I246" s="9"/>
       <c r="J246" s="11"/>
-      <c r="K246" s="62">
+      <c r="K246" s="50">
         <v>38877</v>
       </c>
     </row>
-    <row r="247" spans="1:11">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>219</v>
@@ -9508,10 +9509,10 @@
       <c r="J247" s="11"/>
       <c r="K247" s="20"/>
     </row>
-    <row r="248" spans="1:11">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40">
-        <f>EDATE(A245,1)</f>
-        <v>38961</v>
+        <f>EOMONTH(A245,1)</f>
+        <v>38990</v>
       </c>
       <c r="B248" s="20" t="s">
         <v>220</v>
@@ -9533,10 +9534,10 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
-        <f t="shared" si="12"/>
-        <v>38991</v>
+        <f>EOMONTH(A248,1)</f>
+        <v>39021</v>
       </c>
       <c r="B249" s="20" t="s">
         <v>62</v>
@@ -9558,7 +9559,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="250" spans="1:11">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>222</v>
@@ -9580,10 +9581,10 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
-        <f>EDATE(A249,1)</f>
-        <v>39022</v>
+        <f>EOMONTH(A249,1)</f>
+        <v>39051</v>
       </c>
       <c r="B251" s="20" t="s">
         <v>223</v>
@@ -9605,10 +9606,10 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40">
-        <f t="shared" si="12"/>
-        <v>39052</v>
+        <f>EOMONTH(A251,1)</f>
+        <v>39082</v>
       </c>
       <c r="B252" s="20" t="s">
         <v>45</v>
@@ -9630,7 +9631,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40"/>
       <c r="B253" s="20" t="s">
         <v>224</v>
@@ -9650,7 +9651,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="48" t="s">
         <v>225</v>
       </c>
@@ -9668,7 +9669,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40">
         <v>39083</v>
       </c>
@@ -9692,10 +9693,10 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40">
-        <f>EDATE(A255,1)</f>
-        <v>39114</v>
+        <f>EOMONTH(A255,1)</f>
+        <v>39141</v>
       </c>
       <c r="B256" s="20" t="s">
         <v>62</v>
@@ -9713,11 +9714,11 @@
       </c>
       <c r="I256" s="9"/>
       <c r="J256" s="11"/>
-      <c r="K256" s="62">
+      <c r="K256" s="50">
         <v>39327</v>
       </c>
     </row>
-    <row r="257" spans="1:11">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40"/>
       <c r="B257" s="20" t="s">
         <v>227</v>
@@ -9739,10 +9740,10 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40">
-        <f>EDATE(A256,1)</f>
-        <v>39142</v>
+        <f>EOMONTH(A256,1)</f>
+        <v>39172</v>
       </c>
       <c r="B258" s="20" t="s">
         <v>228</v>
@@ -9764,10 +9765,10 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40">
-        <f t="shared" ref="A259:A270" si="13">EDATE(A258,1)</f>
-        <v>39173</v>
+        <f>EOMONTH(A258,1)</f>
+        <v>39202</v>
       </c>
       <c r="B259" s="20"/>
       <c r="C259" s="13">
@@ -9785,10 +9786,10 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40">
-        <f>EDATE(A259,1)</f>
-        <v>39203</v>
+        <f>EOMONTH(A259,1)</f>
+        <v>39233</v>
       </c>
       <c r="B260" s="20" t="s">
         <v>51</v>
@@ -9810,7 +9811,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="261" spans="1:11">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>230</v>
@@ -9832,10 +9833,10 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40">
-        <f>EDATE(A260,1)</f>
-        <v>39234</v>
+        <f>EOMONTH(A260,1)</f>
+        <v>39263</v>
       </c>
       <c r="B262" s="20" t="s">
         <v>231</v>
@@ -9857,10 +9858,10 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40">
-        <f t="shared" si="13"/>
-        <v>39264</v>
+        <f>EOMONTH(A262,1)</f>
+        <v>39294</v>
       </c>
       <c r="B263" s="20" t="s">
         <v>60</v>
@@ -9882,7 +9883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="264" spans="1:11">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>233</v>
@@ -9904,10 +9905,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40">
-        <f>EDATE(A263,1)</f>
-        <v>39295</v>
+        <f>EOMONTH(A263,1)</f>
+        <v>39325</v>
       </c>
       <c r="B265" s="20" t="s">
         <v>62</v>
@@ -9929,7 +9930,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="266" spans="1:11">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>235</v>
@@ -9951,10 +9952,10 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40">
-        <f>EDATE(A265,1)</f>
-        <v>39326</v>
+        <f>EOMONTH(A265,1)</f>
+        <v>39355</v>
       </c>
       <c r="B267" s="20" t="s">
         <v>236</v>
@@ -9976,10 +9977,10 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
-        <f t="shared" si="13"/>
-        <v>39356</v>
+        <f>EOMONTH(A267,1)</f>
+        <v>39386</v>
       </c>
       <c r="B268" s="20" t="s">
         <v>184</v>
@@ -10001,10 +10002,10 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40">
-        <f t="shared" si="13"/>
-        <v>39387</v>
+        <f>EOMONTH(A268,1)</f>
+        <v>39416</v>
       </c>
       <c r="B269" s="20" t="s">
         <v>237</v>
@@ -10026,10 +10027,10 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40">
-        <f t="shared" si="13"/>
-        <v>39417</v>
+        <f>EOMONTH(A269,1)</f>
+        <v>39447</v>
       </c>
       <c r="B270" s="20" t="s">
         <v>45</v>
@@ -10049,7 +10050,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>238</v>
@@ -10071,7 +10072,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="48" t="s">
         <v>239</v>
       </c>
@@ -10089,7 +10090,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -10113,10 +10114,10 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40">
-        <f>EDATE(A273,1)</f>
-        <v>39479</v>
+        <f>EOMONTH(A273,1)</f>
+        <v>39507</v>
       </c>
       <c r="B274" s="20" t="s">
         <v>241</v>
@@ -10138,10 +10139,10 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40">
-        <f t="shared" ref="A275:A286" si="14">EDATE(A274,1)</f>
-        <v>39508</v>
+        <f>EOMONTH(A274,1)</f>
+        <v>39538</v>
       </c>
       <c r="B275" s="20" t="s">
         <v>242</v>
@@ -10163,10 +10164,10 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40">
-        <f t="shared" si="14"/>
-        <v>39539</v>
+        <f>EOMONTH(A275,1)</f>
+        <v>39568</v>
       </c>
       <c r="B276" s="20" t="s">
         <v>243</v>
@@ -10188,10 +10189,10 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40">
-        <f t="shared" si="14"/>
-        <v>39569</v>
+        <f>EOMONTH(A276,1)</f>
+        <v>39599</v>
       </c>
       <c r="B277" s="20" t="s">
         <v>62</v>
@@ -10213,7 +10214,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="278" spans="1:11">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40"/>
       <c r="B278" s="20" t="s">
         <v>245</v>
@@ -10235,10 +10236,10 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40">
-        <f>EDATE(A277,1)</f>
-        <v>39600</v>
+        <f>EOMONTH(A277,1)</f>
+        <v>39629</v>
       </c>
       <c r="B279" s="20" t="s">
         <v>246</v>
@@ -10260,10 +10261,10 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40">
-        <f t="shared" si="14"/>
-        <v>39630</v>
+        <f>EOMONTH(A279,1)</f>
+        <v>39660</v>
       </c>
       <c r="B280" s="20" t="s">
         <v>247</v>
@@ -10285,10 +10286,10 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40">
-        <f t="shared" si="14"/>
-        <v>39661</v>
+        <f>EOMONTH(A280,1)</f>
+        <v>39691</v>
       </c>
       <c r="B281" s="20" t="s">
         <v>47</v>
@@ -10308,7 +10309,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="282" spans="1:11">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40"/>
       <c r="B282" s="20" t="s">
         <v>249</v>
@@ -10330,10 +10331,10 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40">
-        <f>EDATE(A281,1)</f>
-        <v>39692</v>
+        <f>EOMONTH(A281,1)</f>
+        <v>39721</v>
       </c>
       <c r="B283" s="20" t="s">
         <v>250</v>
@@ -10355,10 +10356,10 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40">
-        <f t="shared" si="14"/>
-        <v>39722</v>
+        <f>EOMONTH(A283,1)</f>
+        <v>39752</v>
       </c>
       <c r="B284" s="20" t="s">
         <v>251</v>
@@ -10380,10 +10381,10 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
-        <f t="shared" si="14"/>
-        <v>39753</v>
+        <f>EOMONTH(A284,1)</f>
+        <v>39782</v>
       </c>
       <c r="B285" s="20" t="s">
         <v>252</v>
@@ -10405,10 +10406,10 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40">
-        <f t="shared" si="14"/>
-        <v>39783</v>
+        <f>EOMONTH(A285,1)</f>
+        <v>39813</v>
       </c>
       <c r="B286" s="20" t="s">
         <v>45</v>
@@ -10428,7 +10429,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>253</v>
@@ -10450,7 +10451,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="48" t="s">
         <v>254</v>
       </c>
@@ -10468,7 +10469,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39814</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="290" spans="1:11">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>256</v>
@@ -10514,10 +10515,10 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40">
-        <f>EDATE(A289,1)</f>
-        <v>39845</v>
+        <f>EOMONTH(A289,1)</f>
+        <v>39872</v>
       </c>
       <c r="B291" s="20" t="s">
         <v>257</v>
@@ -10539,10 +10540,10 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
-        <f t="shared" ref="A292:A304" si="15">EDATE(A291,1)</f>
-        <v>39873</v>
+        <f>EOMONTH(A291,1)</f>
+        <v>39903</v>
       </c>
       <c r="B292" s="20" t="s">
         <v>258</v>
@@ -10564,10 +10565,10 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40">
-        <f t="shared" si="15"/>
-        <v>39904</v>
+        <f>EOMONTH(A292,1)</f>
+        <v>39933</v>
       </c>
       <c r="B293" s="20" t="s">
         <v>259</v>
@@ -10589,10 +10590,10 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40">
-        <f t="shared" si="15"/>
-        <v>39934</v>
+        <f>EOMONTH(A293,1)</f>
+        <v>39964</v>
       </c>
       <c r="B294" s="20" t="s">
         <v>260</v>
@@ -10614,10 +10615,10 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40">
-        <f t="shared" si="15"/>
-        <v>39965</v>
+        <f>EOMONTH(A294,1)</f>
+        <v>39994</v>
       </c>
       <c r="B295" s="20" t="s">
         <v>62</v>
@@ -10639,7 +10640,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="296" spans="1:11">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40"/>
       <c r="B296" s="20" t="s">
         <v>262</v>
@@ -10661,10 +10662,10 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40">
-        <f>EDATE(A295,1)</f>
-        <v>39995</v>
+        <f>EOMONTH(A295,1)</f>
+        <v>40025</v>
       </c>
       <c r="B297" s="15" t="s">
         <v>263</v>
@@ -10675,21 +10676,21 @@
       <c r="D297" s="43">
         <v>1.7330000000000001</v>
       </c>
-      <c r="E297" s="63"/>
+      <c r="E297" s="51"/>
       <c r="F297" s="15"/>
       <c r="G297" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H297" s="43"/>
-      <c r="I297" s="63"/>
+      <c r="I297" s="51"/>
       <c r="J297" s="12"/>
       <c r="K297" s="15"/>
     </row>
-    <row r="298" spans="1:11">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40">
-        <f t="shared" si="15"/>
-        <v>40026</v>
+        <f>EOMONTH(A297,1)</f>
+        <v>40056</v>
       </c>
       <c r="B298" s="20" t="s">
         <v>47</v>
@@ -10709,7 +10710,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="299" spans="1:11">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40"/>
       <c r="B299" s="20" t="s">
         <v>265</v>
@@ -10731,10 +10732,10 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40">
-        <f>EDATE(A298,1)</f>
-        <v>40057</v>
+        <f>EOMONTH(A298,1)</f>
+        <v>40086</v>
       </c>
       <c r="B300" s="20" t="s">
         <v>62</v>
@@ -10752,11 +10753,11 @@
       </c>
       <c r="I300" s="9"/>
       <c r="J300" s="11"/>
-      <c r="K300" s="62">
+      <c r="K300" s="50">
         <v>39853</v>
       </c>
     </row>
-    <row r="301" spans="1:11">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>266</v>
@@ -10778,10 +10779,10 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
-        <f>EDATE(A300,1)</f>
-        <v>40087</v>
+        <f>EOMONTH(A300,1)</f>
+        <v>40117</v>
       </c>
       <c r="B302" s="20" t="s">
         <v>267</v>
@@ -10803,10 +10804,10 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40">
-        <f t="shared" si="15"/>
-        <v>40118</v>
+        <f>EOMONTH(A302,1)</f>
+        <v>40147</v>
       </c>
       <c r="B303" s="20" t="s">
         <v>268</v>
@@ -10828,10 +10829,10 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40">
-        <f t="shared" si="15"/>
-        <v>40148</v>
+        <f>EOMONTH(A303,1)</f>
+        <v>40178</v>
       </c>
       <c r="B304" s="20" t="s">
         <v>269</v>
@@ -10853,7 +10854,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="48" t="s">
         <v>270</v>
       </c>
@@ -10871,7 +10872,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40">
         <v>40179</v>
       </c>
@@ -10895,7 +10896,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40"/>
       <c r="B307" s="20" t="s">
         <v>51</v>
@@ -10917,10 +10918,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="308" spans="1:11">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40">
-        <f>EDATE(A306,1)</f>
-        <v>40210</v>
+        <f>EOMONTH(A306,1)</f>
+        <v>40237</v>
       </c>
       <c r="B308" s="20" t="s">
         <v>62</v>
@@ -10942,7 +10943,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="309" spans="1:11">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>274</v>
@@ -10964,10 +10965,10 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40">
-        <f>EDATE(A308,1)</f>
-        <v>40238</v>
+        <f>EOMONTH(A308,1)</f>
+        <v>40268</v>
       </c>
       <c r="B310" s="20" t="s">
         <v>51</v>
@@ -10989,7 +10990,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="311" spans="1:11">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40"/>
       <c r="B311" s="20" t="s">
         <v>81</v>
@@ -11011,7 +11012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="312" spans="1:11">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>277</v>
@@ -11031,7 +11032,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="313" spans="1:11">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20"/>
       <c r="C313" s="13">
@@ -11049,10 +11050,10 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40">
-        <f>EDATE(A310,1)</f>
-        <v>40269</v>
+        <f>EOMONTH(A310,1)</f>
+        <v>40298</v>
       </c>
       <c r="B314" s="20" t="s">
         <v>279</v>
@@ -11074,7 +11075,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="315" spans="1:11">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40"/>
       <c r="B315" s="20" t="s">
         <v>281</v>
@@ -11096,7 +11097,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="316" spans="1:11">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20"/>
       <c r="C316" s="13">
@@ -11114,10 +11115,10 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="40">
-        <f>EDATE(A314,1)</f>
-        <v>40299</v>
+        <f>EOMONTH(A314,1)</f>
+        <v>40329</v>
       </c>
       <c r="B317" s="20"/>
       <c r="C317" s="13">
@@ -11135,10 +11136,10 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
-        <f t="shared" ref="A318:A331" si="16">EDATE(A317,1)</f>
-        <v>40330</v>
+        <f>EOMONTH(A317,1)</f>
+        <v>40359</v>
       </c>
       <c r="B318" s="20"/>
       <c r="C318" s="13">
@@ -11156,10 +11157,10 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40">
-        <f t="shared" si="16"/>
-        <v>40360</v>
+        <f>EOMONTH(A318,1)</f>
+        <v>40390</v>
       </c>
       <c r="B319" s="20" t="s">
         <v>62</v>
@@ -11181,7 +11182,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="320" spans="1:11">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>62</v>
@@ -11199,11 +11200,11 @@
       </c>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
-      <c r="K320" s="62">
+      <c r="K320" s="50">
         <v>40397</v>
       </c>
     </row>
-    <row r="321" spans="1:11">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>284</v>
@@ -11225,10 +11226,10 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40">
-        <f>EDATE(A319,1)</f>
-        <v>40391</v>
+        <f>EOMONTH(A319,1)</f>
+        <v>40421</v>
       </c>
       <c r="B322" s="20" t="s">
         <v>62</v>
@@ -11246,11 +11247,11 @@
       </c>
       <c r="I322" s="9"/>
       <c r="J322" s="11"/>
-      <c r="K322" s="62">
+      <c r="K322" s="50">
         <v>40337</v>
       </c>
     </row>
-    <row r="323" spans="1:11">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40"/>
       <c r="B323" s="20" t="s">
         <v>285</v>
@@ -11272,10 +11273,10 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40">
-        <f>EDATE(A322,1)</f>
-        <v>40422</v>
+        <f>EOMONTH(A322,1)</f>
+        <v>40451</v>
       </c>
       <c r="B324" s="20" t="s">
         <v>62</v>
@@ -11293,11 +11294,11 @@
       </c>
       <c r="I324" s="9"/>
       <c r="J324" s="11"/>
-      <c r="K324" s="62">
+      <c r="K324" s="50">
         <v>40187</v>
       </c>
     </row>
-    <row r="325" spans="1:11">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40"/>
       <c r="B325" s="20" t="s">
         <v>60</v>
@@ -11315,11 +11316,11 @@
       </c>
       <c r="I325" s="9"/>
       <c r="J325" s="11"/>
-      <c r="K325" s="62" t="s">
+      <c r="K325" s="50" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="326" spans="1:11">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>286</v>
@@ -11341,10 +11342,10 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40">
-        <f>EDATE(A324,1)</f>
-        <v>40452</v>
+        <f>EOMONTH(A324,1)</f>
+        <v>40482</v>
       </c>
       <c r="B327" s="20" t="s">
         <v>62</v>
@@ -11366,7 +11367,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="328" spans="1:11">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40"/>
       <c r="B328" s="20" t="s">
         <v>62</v>
@@ -11384,11 +11385,11 @@
       </c>
       <c r="I328" s="9"/>
       <c r="J328" s="11"/>
-      <c r="K328" s="62">
+      <c r="K328" s="50">
         <v>40400</v>
       </c>
     </row>
-    <row r="329" spans="1:11">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>283</v>
@@ -11410,10 +11411,10 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40">
-        <f>EDATE(A327,1)</f>
-        <v>40483</v>
+        <f>EOMONTH(A327,1)</f>
+        <v>40512</v>
       </c>
       <c r="B330" s="20" t="s">
         <v>289</v>
@@ -11435,10 +11436,10 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
-        <f t="shared" si="16"/>
-        <v>40513</v>
+        <f>EOMONTH(A330,1)</f>
+        <v>40543</v>
       </c>
       <c r="B331" s="20" t="s">
         <v>290</v>
@@ -11460,7 +11461,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>62</v>
@@ -11478,11 +11479,11 @@
       </c>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
-      <c r="K332" s="62">
+      <c r="K332" s="50">
         <v>40221</v>
       </c>
     </row>
-    <row r="333" spans="1:11">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="48" t="s">
         <v>291</v>
       </c>
@@ -11500,7 +11501,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>40544</v>
       </c>
@@ -11524,10 +11525,10 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40">
-        <f>EDATE(A334,1)</f>
-        <v>40575</v>
+        <f>EOMONTH(A334,1)</f>
+        <v>40602</v>
       </c>
       <c r="B335" s="20" t="s">
         <v>293</v>
@@ -11549,10 +11550,10 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40">
-        <f t="shared" ref="A336:A346" si="17">EDATE(A335,1)</f>
-        <v>40603</v>
+        <f>EOMONTH(A335,1)</f>
+        <v>40633</v>
       </c>
       <c r="B336" s="20" t="s">
         <v>62</v>
@@ -11574,7 +11575,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="337" spans="1:11">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40"/>
       <c r="B337" s="20"/>
       <c r="C337" s="13">
@@ -11592,10 +11593,10 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
-        <f>EDATE(A336,1)</f>
-        <v>40634</v>
+        <f>EOMONTH(A336,1)</f>
+        <v>40663</v>
       </c>
       <c r="B338" s="20"/>
       <c r="C338" s="13">
@@ -11613,10 +11614,10 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
-        <f t="shared" si="17"/>
-        <v>40664</v>
+        <f>EOMONTH(A338,1)</f>
+        <v>40694</v>
       </c>
       <c r="B339" s="20" t="s">
         <v>295</v>
@@ -11638,10 +11639,10 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40">
-        <f t="shared" si="17"/>
-        <v>40695</v>
+        <f>EOMONTH(A339,1)</f>
+        <v>40724</v>
       </c>
       <c r="B340" s="20" t="s">
         <v>296</v>
@@ -11663,10 +11664,10 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40">
-        <f t="shared" si="17"/>
-        <v>40725</v>
+        <f>EOMONTH(A340,1)</f>
+        <v>40755</v>
       </c>
       <c r="B341" s="20" t="s">
         <v>297</v>
@@ -11688,10 +11689,10 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
-        <f t="shared" si="17"/>
-        <v>40756</v>
+        <f>EOMONTH(A341,1)</f>
+        <v>40786</v>
       </c>
       <c r="B342" s="20" t="s">
         <v>47</v>
@@ -11711,7 +11712,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="343" spans="1:11">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>299</v>
@@ -11733,10 +11734,10 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
-        <f>EDATE(A342,1)</f>
-        <v>40787</v>
+        <f>EOMONTH(A342,1)</f>
+        <v>40816</v>
       </c>
       <c r="B344" s="20" t="s">
         <v>300</v>
@@ -11758,10 +11759,10 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
-        <f t="shared" si="17"/>
-        <v>40817</v>
+        <f>EOMONTH(A344,1)</f>
+        <v>40847</v>
       </c>
       <c r="B345" s="20" t="s">
         <v>301</v>
@@ -11783,10 +11784,10 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="40">
-        <f t="shared" si="17"/>
-        <v>40848</v>
+        <f>EOMONTH(A345,1)</f>
+        <v>40877</v>
       </c>
       <c r="B346" s="20" t="s">
         <v>302</v>
@@ -11808,7 +11809,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="347" spans="1:11">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40"/>
       <c r="B347" s="20" t="s">
         <v>304</v>
@@ -11830,10 +11831,10 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40">
-        <f>EDATE(A346,1)</f>
-        <v>40878</v>
+        <f>EOMONTH(A346,1)</f>
+        <v>40908</v>
       </c>
       <c r="B348" s="20" t="s">
         <v>86</v>
@@ -11855,7 +11856,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="349" spans="1:11">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>306</v>
@@ -11877,7 +11878,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="48" t="s">
         <v>307</v>
       </c>
@@ -11895,7 +11896,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40">
         <v>40909</v>
       </c>
@@ -11917,7 +11918,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="352" spans="1:11">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>47</v>
@@ -11937,7 +11938,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="353" spans="1:11">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40"/>
       <c r="B353" s="20" t="s">
         <v>310</v>
@@ -11959,10 +11960,10 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
-        <f>EDATE(A351,1)</f>
-        <v>40940</v>
+        <f>EOMONTH(A351,1)</f>
+        <v>40968</v>
       </c>
       <c r="B354" s="20" t="s">
         <v>311</v>
@@ -11984,10 +11985,10 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40">
-        <f t="shared" ref="A355:A368" si="18">EDATE(A354,1)</f>
-        <v>40969</v>
+        <f>EOMONTH(A354,1)</f>
+        <v>40999</v>
       </c>
       <c r="B355" s="20" t="s">
         <v>312</v>
@@ -12009,10 +12010,10 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
-        <f t="shared" si="18"/>
-        <v>41000</v>
+        <f>EOMONTH(A355,1)</f>
+        <v>41029</v>
       </c>
       <c r="B356" s="20" t="s">
         <v>237</v>
@@ -12034,10 +12035,10 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40">
-        <f t="shared" si="18"/>
-        <v>41030</v>
+        <f>EOMONTH(A356,1)</f>
+        <v>41060</v>
       </c>
       <c r="B357" s="20" t="s">
         <v>51</v>
@@ -12059,7 +12060,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="358" spans="1:11">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40"/>
       <c r="B358" s="20" t="s">
         <v>314</v>
@@ -12081,10 +12082,10 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40">
-        <f>EDATE(A357,1)</f>
-        <v>41061</v>
+        <f>EOMONTH(A357,1)</f>
+        <v>41090</v>
       </c>
       <c r="B359" s="20" t="s">
         <v>315</v>
@@ -12104,7 +12105,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="360" spans="1:11">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40"/>
       <c r="B360" s="20"/>
       <c r="C360" s="13">
@@ -12122,10 +12123,10 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40">
-        <f>EDATE(A359,1)</f>
-        <v>41091</v>
+        <f>EOMONTH(A359,1)</f>
+        <v>41121</v>
       </c>
       <c r="B361" s="20" t="s">
         <v>123</v>
@@ -12147,7 +12148,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="362" spans="1:11">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>319</v>
@@ -12169,10 +12170,10 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
-        <f>EDATE(A361,1)</f>
-        <v>41122</v>
+        <f>EOMONTH(A361,1)</f>
+        <v>41152</v>
       </c>
       <c r="B363" s="20" t="s">
         <v>320</v>
@@ -12194,10 +12195,10 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
-        <f t="shared" si="18"/>
-        <v>41153</v>
+        <f>EOMONTH(A363,1)</f>
+        <v>41182</v>
       </c>
       <c r="B364" s="20" t="s">
         <v>47</v>
@@ -12217,7 +12218,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="365" spans="1:11">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40"/>
       <c r="B365" s="20" t="s">
         <v>322</v>
@@ -12239,10 +12240,10 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40">
-        <f>EDATE(A364,1)</f>
-        <v>41183</v>
+        <f>EOMONTH(A364,1)</f>
+        <v>41213</v>
       </c>
       <c r="B366" s="20" t="s">
         <v>323</v>
@@ -12264,10 +12265,10 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40">
-        <f t="shared" si="18"/>
-        <v>41214</v>
+        <f>EOMONTH(A366,1)</f>
+        <v>41243</v>
       </c>
       <c r="B367" s="20" t="s">
         <v>324</v>
@@ -12289,10 +12290,10 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
-        <f t="shared" si="18"/>
-        <v>41244</v>
+        <f>EOMONTH(A367,1)</f>
+        <v>41274</v>
       </c>
       <c r="B368" s="20" t="s">
         <v>45</v>
@@ -12314,7 +12315,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>112</v>
@@ -12334,7 +12335,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="48" t="s">
         <v>325</v>
       </c>
@@ -12352,7 +12353,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="40">
         <v>41275</v>
       </c>
@@ -12376,10 +12377,10 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
-        <f>EDATE(A371,1)</f>
-        <v>41306</v>
+        <f>EOMONTH(A371,1)</f>
+        <v>41333</v>
       </c>
       <c r="B372" s="20" t="s">
         <v>327</v>
@@ -12401,10 +12402,10 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40">
-        <f t="shared" ref="A373:A384" si="19">EDATE(A372,1)</f>
-        <v>41334</v>
+        <f>EOMONTH(A372,1)</f>
+        <v>41364</v>
       </c>
       <c r="B373" s="20" t="s">
         <v>328</v>
@@ -12426,10 +12427,10 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40">
-        <f t="shared" si="19"/>
-        <v>41365</v>
+        <f>EOMONTH(A373,1)</f>
+        <v>41394</v>
       </c>
       <c r="B374" s="20" t="s">
         <v>329</v>
@@ -12451,10 +12452,10 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
-        <f t="shared" si="19"/>
-        <v>41395</v>
+        <f>EOMONTH(A374,1)</f>
+        <v>41425</v>
       </c>
       <c r="B375" s="20" t="s">
         <v>330</v>
@@ -12476,10 +12477,10 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40">
-        <f t="shared" si="19"/>
-        <v>41426</v>
+        <f>EOMONTH(A375,1)</f>
+        <v>41455</v>
       </c>
       <c r="B376" s="20" t="s">
         <v>331</v>
@@ -12501,10 +12502,10 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40">
-        <f t="shared" si="19"/>
-        <v>41456</v>
+        <f>EOMONTH(A376,1)</f>
+        <v>41486</v>
       </c>
       <c r="B377" s="20" t="s">
         <v>332</v>
@@ -12526,10 +12527,10 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40">
-        <f t="shared" si="19"/>
-        <v>41487</v>
+        <f>EOMONTH(A377,1)</f>
+        <v>41517</v>
       </c>
       <c r="B378" s="20" t="s">
         <v>333</v>
@@ -12551,10 +12552,10 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
-        <f t="shared" si="19"/>
-        <v>41518</v>
+        <f>EOMONTH(A378,1)</f>
+        <v>41547</v>
       </c>
       <c r="B379" s="20" t="s">
         <v>47</v>
@@ -12574,7 +12575,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="380" spans="1:11">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>335</v>
@@ -12596,10 +12597,10 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
-        <f>EDATE(A379,1)</f>
-        <v>41548</v>
+        <f>EOMONTH(A379,1)</f>
+        <v>41578</v>
       </c>
       <c r="B381" s="20" t="s">
         <v>62</v>
@@ -12617,11 +12618,11 @@
       </c>
       <c r="I381" s="9"/>
       <c r="J381" s="11"/>
-      <c r="K381" s="62">
+      <c r="K381" s="50">
         <v>41619</v>
       </c>
     </row>
-    <row r="382" spans="1:11">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40"/>
       <c r="B382" s="20" t="s">
         <v>336</v>
@@ -12643,10 +12644,10 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
-        <f>EDATE(A381,1)</f>
-        <v>41579</v>
+        <f>EOMONTH(A381,1)</f>
+        <v>41608</v>
       </c>
       <c r="B383" s="20" t="s">
         <v>337</v>
@@ -12668,10 +12669,10 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
-        <f t="shared" si="19"/>
-        <v>41609</v>
+        <f>EOMONTH(A383,1)</f>
+        <v>41639</v>
       </c>
       <c r="B384" s="20" t="s">
         <v>338</v>
@@ -12693,7 +12694,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="48" t="s">
         <v>339</v>
       </c>
@@ -12711,7 +12712,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>41640</v>
       </c>
@@ -12735,10 +12736,10 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40">
-        <f>EDATE(A386,1)</f>
-        <v>41671</v>
+        <f>EOMONTH(A386,1)</f>
+        <v>41698</v>
       </c>
       <c r="B387" s="20" t="s">
         <v>340</v>
@@ -12760,10 +12761,10 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40">
-        <f t="shared" ref="A388:A397" si="20">EDATE(A387,1)</f>
-        <v>41699</v>
+        <f>EOMONTH(A387,1)</f>
+        <v>41729</v>
       </c>
       <c r="B388" s="20" t="s">
         <v>341</v>
@@ -12785,10 +12786,10 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
-        <f t="shared" si="20"/>
-        <v>41730</v>
+        <f>EOMONTH(A388,1)</f>
+        <v>41759</v>
       </c>
       <c r="B389" s="20" t="s">
         <v>342</v>
@@ -12810,10 +12811,10 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
-        <f t="shared" si="20"/>
-        <v>41760</v>
+        <f>EOMONTH(A389,1)</f>
+        <v>41790</v>
       </c>
       <c r="B390" s="20" t="s">
         <v>62</v>
@@ -12835,7 +12836,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="391" spans="1:11">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>327</v>
@@ -12857,10 +12858,10 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
-        <f>EDATE(A390,1)</f>
-        <v>41791</v>
+        <f>EOMONTH(A390,1)</f>
+        <v>41820</v>
       </c>
       <c r="B392" s="20" t="s">
         <v>344</v>
@@ -12882,10 +12883,10 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
-        <f t="shared" si="20"/>
-        <v>41821</v>
+        <f>EOMONTH(A392,1)</f>
+        <v>41851</v>
       </c>
       <c r="B393" s="20" t="s">
         <v>345</v>
@@ -12907,10 +12908,10 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
-        <f t="shared" si="20"/>
-        <v>41852</v>
+        <f>EOMONTH(A393,1)</f>
+        <v>41882</v>
       </c>
       <c r="B394" s="20" t="s">
         <v>47</v>
@@ -12930,7 +12931,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="395" spans="1:11">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>347</v>
@@ -12952,10 +12953,10 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40">
-        <f>EDATE(A394,1)</f>
-        <v>41883</v>
+        <f>EOMONTH(A394,1)</f>
+        <v>41912</v>
       </c>
       <c r="B396" s="20" t="s">
         <v>348</v>
@@ -12977,10 +12978,10 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
-        <f t="shared" si="20"/>
-        <v>41913</v>
+        <f>EOMONTH(A396,1)</f>
+        <v>41943</v>
       </c>
       <c r="B397" s="20" t="s">
         <v>349</v>
@@ -13002,10 +13003,10 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
-        <f>EDATE(A397,1)</f>
-        <v>41944</v>
+        <f>EOMONTH(A397,1)</f>
+        <v>41973</v>
       </c>
       <c r="B398" s="20" t="s">
         <v>62</v>
@@ -13027,7 +13028,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="399" spans="1:11">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40"/>
       <c r="B399" s="20" t="s">
         <v>62</v>
@@ -13049,7 +13050,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="400" spans="1:11">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>352</v>
@@ -13071,10 +13072,10 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
-        <f>EDATE(A398,1)</f>
-        <v>41974</v>
+        <f>EOMONTH(A398,1)</f>
+        <v>42004</v>
       </c>
       <c r="B401" s="20" t="s">
         <v>353</v>
@@ -13096,7 +13097,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="48" t="s">
         <v>354</v>
       </c>
@@ -13114,7 +13115,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>42005</v>
       </c>
@@ -13138,10 +13139,10 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
-        <f>EDATE(A403,1)</f>
-        <v>42036</v>
+        <f>EOMONTH(A403,1)</f>
+        <v>42063</v>
       </c>
       <c r="B404" s="20" t="s">
         <v>356</v>
@@ -13163,10 +13164,10 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
-        <f t="shared" ref="A405:A414" si="21">EDATE(A404,1)</f>
-        <v>42064</v>
+        <f>EOMONTH(A404,1)</f>
+        <v>42094</v>
       </c>
       <c r="B405" s="20" t="s">
         <v>357</v>
@@ -13188,10 +13189,10 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
-        <f t="shared" si="21"/>
-        <v>42095</v>
+        <f>EOMONTH(A405,1)</f>
+        <v>42124</v>
       </c>
       <c r="B406" s="20" t="s">
         <v>128</v>
@@ -13213,10 +13214,10 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40">
-        <f t="shared" si="21"/>
-        <v>42125</v>
+        <f>EOMONTH(A406,1)</f>
+        <v>42155</v>
       </c>
       <c r="B407" s="20" t="s">
         <v>358</v>
@@ -13238,10 +13239,10 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
-        <f t="shared" si="21"/>
-        <v>42156</v>
+        <f>EOMONTH(A407,1)</f>
+        <v>42185</v>
       </c>
       <c r="B408" s="15" t="s">
         <v>226</v>
@@ -13252,21 +13253,21 @@
       <c r="D408" s="43">
         <v>0.64800000000000002</v>
       </c>
-      <c r="E408" s="63"/>
+      <c r="E408" s="51"/>
       <c r="F408" s="15"/>
       <c r="G408" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H408" s="43"/>
-      <c r="I408" s="63"/>
+      <c r="I408" s="51"/>
       <c r="J408" s="12"/>
       <c r="K408" s="15"/>
     </row>
-    <row r="409" spans="1:11">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
-        <f t="shared" si="21"/>
-        <v>42186</v>
+        <f>EOMONTH(A408,1)</f>
+        <v>42216</v>
       </c>
       <c r="B409" s="20" t="s">
         <v>359</v>
@@ -13288,10 +13289,10 @@
       <c r="J409" s="11"/>
       <c r="K409" s="15"/>
     </row>
-    <row r="410" spans="1:11">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40">
-        <f t="shared" si="21"/>
-        <v>42217</v>
+        <f>EOMONTH(A409,1)</f>
+        <v>42247</v>
       </c>
       <c r="B410" s="20" t="s">
         <v>47</v>
@@ -13311,7 +13312,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="411" spans="1:11">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20"/>
       <c r="C411" s="13">
@@ -13329,10 +13330,10 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
-        <f>EDATE(A410,1)</f>
-        <v>42248</v>
+        <f>EOMONTH(A410,1)</f>
+        <v>42277</v>
       </c>
       <c r="B412" s="20"/>
       <c r="C412" s="13">
@@ -13350,10 +13351,10 @@
       <c r="J412" s="11"/>
       <c r="K412" s="15"/>
     </row>
-    <row r="413" spans="1:11">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
-        <f t="shared" si="21"/>
-        <v>42278</v>
+        <f>EOMONTH(A412,1)</f>
+        <v>42308</v>
       </c>
       <c r="B413" s="20"/>
       <c r="C413" s="13">
@@ -13371,10 +13372,10 @@
       <c r="J413" s="11"/>
       <c r="K413" s="15"/>
     </row>
-    <row r="414" spans="1:11">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
-        <f t="shared" si="21"/>
-        <v>42309</v>
+        <f>EOMONTH(A413,1)</f>
+        <v>42338</v>
       </c>
       <c r="B414" s="20" t="s">
         <v>123</v>
@@ -13396,7 +13397,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="415" spans="1:11">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20"/>
       <c r="C415" s="13">
@@ -13414,10 +13415,10 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
-        <f>EDATE(A414,1)</f>
-        <v>42339</v>
+        <f>EOMONTH(A414,1)</f>
+        <v>42369</v>
       </c>
       <c r="B416" s="20" t="s">
         <v>45</v>
@@ -13439,7 +13440,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="15"/>
     </row>
-    <row r="417" spans="1:11">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="48" t="s">
         <v>362</v>
       </c>
@@ -13457,7 +13458,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="15"/>
     </row>
-    <row r="418" spans="1:11">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40">
         <v>42370</v>
       </c>
@@ -13477,10 +13478,10 @@
       <c r="J418" s="11"/>
       <c r="K418" s="15"/>
     </row>
-    <row r="419" spans="1:11">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
-        <f>EDATE(A418,1)</f>
-        <v>42401</v>
+        <f>EOMONTH(A418,1)</f>
+        <v>42429</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13">
@@ -13498,10 +13499,10 @@
       <c r="J419" s="11"/>
       <c r="K419" s="15"/>
     </row>
-    <row r="420" spans="1:11">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
-        <f t="shared" ref="A420:A431" si="22">EDATE(A419,1)</f>
-        <v>42430</v>
+        <f>EOMONTH(A419,1)</f>
+        <v>42460</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13">
@@ -13519,10 +13520,10 @@
       <c r="J420" s="11"/>
       <c r="K420" s="15"/>
     </row>
-    <row r="421" spans="1:11">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
-        <f t="shared" si="22"/>
-        <v>42461</v>
+        <f>EOMONTH(A420,1)</f>
+        <v>42490</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13">
@@ -13540,10 +13541,10 @@
       <c r="J421" s="11"/>
       <c r="K421" s="15"/>
     </row>
-    <row r="422" spans="1:11">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
-        <f t="shared" si="22"/>
-        <v>42491</v>
+        <f>EOMONTH(A421,1)</f>
+        <v>42521</v>
       </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13">
@@ -13561,10 +13562,10 @@
       <c r="J422" s="11"/>
       <c r="K422" s="15"/>
     </row>
-    <row r="423" spans="1:11">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
-        <f t="shared" si="22"/>
-        <v>42522</v>
+        <f>EOMONTH(A422,1)</f>
+        <v>42551</v>
       </c>
       <c r="B423" s="20"/>
       <c r="C423" s="13">
@@ -13582,10 +13583,10 @@
       <c r="J423" s="11"/>
       <c r="K423" s="15"/>
     </row>
-    <row r="424" spans="1:11">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
-        <f t="shared" si="22"/>
-        <v>42552</v>
+        <f>EOMONTH(A423,1)</f>
+        <v>42582</v>
       </c>
       <c r="B424" s="20"/>
       <c r="C424" s="13">
@@ -13603,10 +13604,10 @@
       <c r="J424" s="11"/>
       <c r="K424" s="15"/>
     </row>
-    <row r="425" spans="1:11">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
-        <f t="shared" si="22"/>
-        <v>42583</v>
+        <f>EOMONTH(A424,1)</f>
+        <v>42613</v>
       </c>
       <c r="B425" s="20" t="s">
         <v>47</v>
@@ -13626,7 +13627,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="426" spans="1:11">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>53</v>
@@ -13644,11 +13645,11 @@
       <c r="H426" s="39"/>
       <c r="I426" s="9"/>
       <c r="J426" s="11"/>
-      <c r="K426" s="62">
+      <c r="K426" s="50">
         <v>42409</v>
       </c>
     </row>
-    <row r="427" spans="1:11">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40"/>
       <c r="B427" s="20"/>
       <c r="C427" s="13">
@@ -13666,10 +13667,10 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
-        <f>EDATE(A425,1)</f>
-        <v>42614</v>
+        <f>EOMONTH(A425,1)</f>
+        <v>42643</v>
       </c>
       <c r="B428" s="20"/>
       <c r="C428" s="13">
@@ -13687,10 +13688,10 @@
       <c r="J428" s="11"/>
       <c r="K428" s="15"/>
     </row>
-    <row r="429" spans="1:11">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
-        <f t="shared" si="22"/>
-        <v>42644</v>
+        <f>EOMONTH(A428,1)</f>
+        <v>42674</v>
       </c>
       <c r="B429" s="20"/>
       <c r="C429" s="13">
@@ -13708,10 +13709,10 @@
       <c r="J429" s="11"/>
       <c r="K429" s="15"/>
     </row>
-    <row r="430" spans="1:11">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
-        <f t="shared" si="22"/>
-        <v>42675</v>
+        <f>EOMONTH(A429,1)</f>
+        <v>42704</v>
       </c>
       <c r="B430" s="20" t="s">
         <v>47</v>
@@ -13733,10 +13734,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="431" spans="1:11">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
-        <f t="shared" si="22"/>
-        <v>42705</v>
+        <f>EOMONTH(A430,1)</f>
+        <v>42735</v>
       </c>
       <c r="B431" s="20" t="s">
         <v>365</v>
@@ -13758,7 +13759,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="15"/>
     </row>
-    <row r="432" spans="1:11">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="48" t="s">
         <v>366</v>
       </c>
@@ -13776,7 +13777,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="15"/>
     </row>
-    <row r="433" spans="1:11">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>42736</v>
       </c>
@@ -13796,10 +13797,10 @@
       <c r="J433" s="11"/>
       <c r="K433" s="15"/>
     </row>
-    <row r="434" spans="1:11">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
-        <f>EDATE(A433,1)</f>
-        <v>42767</v>
+        <f>EOMONTH(A433,1)</f>
+        <v>42794</v>
       </c>
       <c r="B434" s="20"/>
       <c r="C434" s="13">
@@ -13817,10 +13818,10 @@
       <c r="J434" s="11"/>
       <c r="K434" s="15"/>
     </row>
-    <row r="435" spans="1:11">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
-        <f t="shared" ref="A435:A444" si="23">EDATE(A434,1)</f>
-        <v>42795</v>
+        <f>EOMONTH(A434,1)</f>
+        <v>42825</v>
       </c>
       <c r="B435" s="20"/>
       <c r="C435" s="13">
@@ -13838,10 +13839,10 @@
       <c r="J435" s="11"/>
       <c r="K435" s="15"/>
     </row>
-    <row r="436" spans="1:11">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
-        <f t="shared" si="23"/>
-        <v>42826</v>
+        <f>EOMONTH(A435,1)</f>
+        <v>42855</v>
       </c>
       <c r="B436" s="20"/>
       <c r="C436" s="13">
@@ -13859,10 +13860,10 @@
       <c r="J436" s="11"/>
       <c r="K436" s="15"/>
     </row>
-    <row r="437" spans="1:11">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
-        <f t="shared" si="23"/>
-        <v>42856</v>
+        <f>EOMONTH(A436,1)</f>
+        <v>42886</v>
       </c>
       <c r="B437" s="20"/>
       <c r="C437" s="13">
@@ -13880,10 +13881,10 @@
       <c r="J437" s="11"/>
       <c r="K437" s="15"/>
     </row>
-    <row r="438" spans="1:11">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
-        <f t="shared" si="23"/>
-        <v>42887</v>
+        <f>EOMONTH(A437,1)</f>
+        <v>42916</v>
       </c>
       <c r="B438" s="20"/>
       <c r="C438" s="13">
@@ -13901,10 +13902,10 @@
       <c r="J438" s="11"/>
       <c r="K438" s="15"/>
     </row>
-    <row r="439" spans="1:11">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
-        <f t="shared" si="23"/>
-        <v>42917</v>
+        <f>EOMONTH(A438,1)</f>
+        <v>42947</v>
       </c>
       <c r="B439" s="20"/>
       <c r="C439" s="13">
@@ -13922,10 +13923,10 @@
       <c r="J439" s="11"/>
       <c r="K439" s="15"/>
     </row>
-    <row r="440" spans="1:11">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
-        <f t="shared" si="23"/>
-        <v>42948</v>
+        <f>EOMONTH(A439,1)</f>
+        <v>42978</v>
       </c>
       <c r="B440" s="20" t="s">
         <v>47</v>
@@ -13947,10 +13948,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="441" spans="1:11">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
-        <f t="shared" si="23"/>
-        <v>42979</v>
+        <f>EOMONTH(A440,1)</f>
+        <v>43008</v>
       </c>
       <c r="B441" s="20"/>
       <c r="C441" s="13">
@@ -13968,10 +13969,10 @@
       <c r="J441" s="11"/>
       <c r="K441" s="15"/>
     </row>
-    <row r="442" spans="1:11">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
-        <f t="shared" si="23"/>
-        <v>43009</v>
+        <f>EOMONTH(A441,1)</f>
+        <v>43039</v>
       </c>
       <c r="B442" s="20"/>
       <c r="C442" s="13">
@@ -13989,10 +13990,10 @@
       <c r="J442" s="11"/>
       <c r="K442" s="15"/>
     </row>
-    <row r="443" spans="1:11">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
-        <f t="shared" si="23"/>
-        <v>43040</v>
+        <f>EOMONTH(A442,1)</f>
+        <v>43069</v>
       </c>
       <c r="B443" s="20"/>
       <c r="C443" s="13">
@@ -14010,10 +14011,10 @@
       <c r="J443" s="11"/>
       <c r="K443" s="15"/>
     </row>
-    <row r="444" spans="1:11">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
-        <f t="shared" si="23"/>
-        <v>43070</v>
+        <f>EOMONTH(A443,1)</f>
+        <v>43100</v>
       </c>
       <c r="B444" s="20" t="s">
         <v>45</v>
@@ -14035,7 +14036,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="15"/>
     </row>
-    <row r="445" spans="1:11">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="48" t="s">
         <v>368</v>
       </c>
@@ -14053,7 +14054,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="15"/>
     </row>
-    <row r="446" spans="1:11">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>43101</v>
       </c>
@@ -14073,10 +14074,10 @@
       <c r="J446" s="11"/>
       <c r="K446" s="15"/>
     </row>
-    <row r="447" spans="1:11">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
-        <f>EDATE(A446,1)</f>
-        <v>43132</v>
+        <f>EOMONTH(A446,1)</f>
+        <v>43159</v>
       </c>
       <c r="B447" s="20"/>
       <c r="C447" s="13">
@@ -14094,10 +14095,10 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
-        <f t="shared" ref="A448" si="24">EDATE(A447,1)</f>
-        <v>43160</v>
+        <f>EOMONTH(A447,1)</f>
+        <v>43190</v>
       </c>
       <c r="B448" s="20"/>
       <c r="C448" s="13">
@@ -14115,7 +14116,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40"/>
       <c r="B449" s="20" t="s">
         <v>369</v>
@@ -14135,10 +14136,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="450" spans="1:11">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
-        <f>EDATE(A448,1)</f>
-        <v>43191</v>
+        <f>EOMONTH(A448,1)</f>
+        <v>43220</v>
       </c>
       <c r="B450" s="20" t="s">
         <v>302</v>
@@ -14158,10 +14159,10 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
-        <f>EDATE(A450,1)</f>
-        <v>43221</v>
+        <f>EOMONTH(A450,1)</f>
+        <v>43251</v>
       </c>
       <c r="B451" s="20"/>
       <c r="C451" s="13">
@@ -14179,10 +14180,10 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
-        <f>EDATE(A451,1)</f>
-        <v>43252</v>
+        <f>EOMONTH(A451,1)</f>
+        <v>43281</v>
       </c>
       <c r="B452" s="20"/>
       <c r="C452" s="13">
@@ -14200,10 +14201,10 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
-        <f>EDATE(A452,1)</f>
-        <v>43282</v>
+        <f>EOMONTH(A452,1)</f>
+        <v>43312</v>
       </c>
       <c r="B453" s="20"/>
       <c r="C453" s="13">
@@ -14221,10 +14222,10 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
-        <f>EDATE(A453,1)</f>
-        <v>43313</v>
+        <f>EOMONTH(A453,1)</f>
+        <v>43343</v>
       </c>
       <c r="B454" s="20"/>
       <c r="C454" s="13">
@@ -14242,10 +14243,10 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
-        <f>EDATE(A454,1)</f>
-        <v>43344</v>
+        <f>EOMONTH(A454,1)</f>
+        <v>43373</v>
       </c>
       <c r="B455" s="20"/>
       <c r="C455" s="13">
@@ -14263,10 +14264,10 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
-        <f>EDATE(A455,1)</f>
-        <v>43374</v>
+        <f>EOMONTH(A455,1)</f>
+        <v>43404</v>
       </c>
       <c r="B456" s="20"/>
       <c r="C456" s="13">
@@ -14284,10 +14285,10 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
-        <f>EDATE(A456,1)</f>
-        <v>43405</v>
+        <f>EOMONTH(A456,1)</f>
+        <v>43434</v>
       </c>
       <c r="B457" s="20"/>
       <c r="C457" s="13">
@@ -14305,10 +14306,10 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
-        <f>EDATE(A457,1)</f>
-        <v>43435</v>
+        <f>EOMONTH(A457,1)</f>
+        <v>43465</v>
       </c>
       <c r="B458" s="20"/>
       <c r="C458" s="13">
@@ -14326,7 +14327,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="48" t="s">
         <v>371</v>
       </c>
@@ -14344,7 +14345,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>43466</v>
       </c>
@@ -14364,10 +14365,10 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
-        <f>EDATE(A460,1)</f>
-        <v>43497</v>
+        <f>EOMONTH(A460,1)</f>
+        <v>43524</v>
       </c>
       <c r="B461" s="20"/>
       <c r="C461" s="13">
@@ -14385,10 +14386,10 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
-        <f t="shared" ref="A462:A472" si="25">EDATE(A461,1)</f>
-        <v>43525</v>
+        <f>EOMONTH(A461,1)</f>
+        <v>43555</v>
       </c>
       <c r="B462" s="20"/>
       <c r="C462" s="13">
@@ -14406,10 +14407,10 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
-        <f t="shared" si="25"/>
-        <v>43556</v>
+        <f>EOMONTH(A462,1)</f>
+        <v>43585</v>
       </c>
       <c r="B463" s="20"/>
       <c r="C463" s="13">
@@ -14427,10 +14428,10 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
-        <f t="shared" si="25"/>
-        <v>43586</v>
+        <f>EOMONTH(A463,1)</f>
+        <v>43616</v>
       </c>
       <c r="B464" s="20"/>
       <c r="C464" s="13">
@@ -14448,7 +14449,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>55</v>
@@ -14470,10 +14471,10 @@
         <v>372</v>
       </c>
     </row>
-    <row r="466" spans="1:11">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
-        <f>EDATE(A464,1)</f>
-        <v>43617</v>
+        <f>EOMONTH(A464,1)</f>
+        <v>43646</v>
       </c>
       <c r="B466" s="20" t="s">
         <v>369</v>
@@ -14495,10 +14496,10 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
-        <f t="shared" si="25"/>
-        <v>43647</v>
+        <f>EOMONTH(A466,1)</f>
+        <v>43677</v>
       </c>
       <c r="B467" s="20"/>
       <c r="C467" s="13">
@@ -14516,10 +14517,10 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
-        <f t="shared" si="25"/>
-        <v>43678</v>
+        <f>EOMONTH(A467,1)</f>
+        <v>43708</v>
       </c>
       <c r="B468" s="20"/>
       <c r="C468" s="13">
@@ -14537,10 +14538,10 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
-        <f t="shared" si="25"/>
-        <v>43709</v>
+        <f>EOMONTH(A468,1)</f>
+        <v>43738</v>
       </c>
       <c r="B469" s="20"/>
       <c r="C469" s="13">
@@ -14558,10 +14559,10 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
-        <f t="shared" si="25"/>
-        <v>43739</v>
+        <f>EOMONTH(A469,1)</f>
+        <v>43769</v>
       </c>
       <c r="B470" s="20"/>
       <c r="C470" s="13">
@@ -14579,10 +14580,10 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
-        <f t="shared" si="25"/>
-        <v>43770</v>
+        <f>EOMONTH(A470,1)</f>
+        <v>43799</v>
       </c>
       <c r="B471" s="20"/>
       <c r="C471" s="13">
@@ -14600,10 +14601,10 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
-        <f t="shared" si="25"/>
-        <v>43800</v>
+        <f>EOMONTH(A471,1)</f>
+        <v>43830</v>
       </c>
       <c r="B472" s="20"/>
       <c r="C472" s="13">
@@ -14621,7 +14622,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="48" t="s">
         <v>373</v>
       </c>
@@ -14639,7 +14640,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>43831</v>
       </c>
@@ -14659,10 +14660,10 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
-        <f>EDATE(A474,1)</f>
-        <v>43862</v>
+        <f>EOMONTH(A474,1)</f>
+        <v>43890</v>
       </c>
       <c r="B475" s="20"/>
       <c r="C475" s="13">
@@ -14680,10 +14681,10 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
-        <f t="shared" ref="A476:A484" si="26">EDATE(A475,1)</f>
-        <v>43891</v>
+        <f>EOMONTH(A475,1)</f>
+        <v>43921</v>
       </c>
       <c r="B476" s="20"/>
       <c r="C476" s="13">
@@ -14701,10 +14702,10 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
-        <f t="shared" si="26"/>
-        <v>43922</v>
+        <f>EOMONTH(A476,1)</f>
+        <v>43951</v>
       </c>
       <c r="B477" s="20"/>
       <c r="C477" s="13">
@@ -14722,10 +14723,10 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
-        <f t="shared" si="26"/>
-        <v>43952</v>
+        <f>EOMONTH(A477,1)</f>
+        <v>43982</v>
       </c>
       <c r="B478" s="20"/>
       <c r="C478" s="13">
@@ -14743,10 +14744,10 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
-        <f t="shared" si="26"/>
-        <v>43983</v>
+        <f>EOMONTH(A478,1)</f>
+        <v>44012</v>
       </c>
       <c r="B479" s="20"/>
       <c r="C479" s="13">
@@ -14764,10 +14765,10 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
-        <f t="shared" si="26"/>
-        <v>44013</v>
+        <f>EOMONTH(A479,1)</f>
+        <v>44043</v>
       </c>
       <c r="B480" s="20"/>
       <c r="C480" s="13">
@@ -14785,10 +14786,10 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
-        <f t="shared" si="26"/>
-        <v>44044</v>
+        <f>EOMONTH(A480,1)</f>
+        <v>44074</v>
       </c>
       <c r="B481" s="20"/>
       <c r="C481" s="13">
@@ -14806,10 +14807,10 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
-        <f t="shared" si="26"/>
-        <v>44075</v>
+        <f>EOMONTH(A481,1)</f>
+        <v>44104</v>
       </c>
       <c r="B482" s="20" t="s">
         <v>47</v>
@@ -14831,10 +14832,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="483" spans="1:11">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
-        <f>EDATE(A482,1)</f>
-        <v>44105</v>
+        <f>EOMONTH(A482,1)</f>
+        <v>44135</v>
       </c>
       <c r="B483" s="20"/>
       <c r="C483" s="13">
@@ -14852,10 +14853,10 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
-        <f t="shared" si="26"/>
-        <v>44136</v>
+        <f>EOMONTH(A483,1)</f>
+        <v>44165</v>
       </c>
       <c r="B484" s="20"/>
       <c r="C484" s="13">
@@ -14873,10 +14874,10 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
-        <f>EDATE(A484,1)</f>
-        <v>44166</v>
+        <f>EOMONTH(A484,1)</f>
+        <v>44196</v>
       </c>
       <c r="B485" s="20" t="s">
         <v>45</v>
@@ -14898,7 +14899,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="48" t="s">
         <v>375</v>
       </c>
@@ -14916,7 +14917,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="41">
         <v>44197</v>
       </c>
@@ -14925,21 +14926,21 @@
         <v>1.25</v>
       </c>
       <c r="D487" s="43"/>
-      <c r="E487" s="63"/>
+      <c r="E487" s="51"/>
       <c r="F487" s="15"/>
       <c r="G487" s="42">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H487" s="43"/>
-      <c r="I487" s="63"/>
+      <c r="I487" s="51"/>
       <c r="J487" s="12"/>
       <c r="K487" s="15"/>
     </row>
-    <row r="488" spans="1:11">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
-        <f>EDATE(A487,1)</f>
-        <v>44228</v>
+        <f>EOMONTH(A487,1)</f>
+        <v>44255</v>
       </c>
       <c r="B488" s="20"/>
       <c r="C488" s="42">
@@ -14957,10 +14958,10 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
-        <f t="shared" ref="A489:A506" si="27">EDATE(A488,1)</f>
-        <v>44256</v>
+        <f>EOMONTH(A488,1)</f>
+        <v>44286</v>
       </c>
       <c r="B489" s="20"/>
       <c r="C489" s="42">
@@ -14978,10 +14979,10 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
-        <f t="shared" si="27"/>
-        <v>44287</v>
+        <f>EOMONTH(A489,1)</f>
+        <v>44316</v>
       </c>
       <c r="B490" s="20"/>
       <c r="C490" s="42">
@@ -14999,10 +15000,10 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
-        <f t="shared" si="27"/>
-        <v>44317</v>
+        <f>EOMONTH(A490,1)</f>
+        <v>44347</v>
       </c>
       <c r="B491" s="20"/>
       <c r="C491" s="42">
@@ -15020,10 +15021,10 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
-        <f t="shared" si="27"/>
-        <v>44348</v>
+        <f>EOMONTH(A491,1)</f>
+        <v>44377</v>
       </c>
       <c r="B492" s="20"/>
       <c r="C492" s="42">
@@ -15041,10 +15042,10 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
-        <f t="shared" si="27"/>
-        <v>44378</v>
+        <f>EOMONTH(A492,1)</f>
+        <v>44408</v>
       </c>
       <c r="B493" s="20"/>
       <c r="C493" s="42">
@@ -15062,10 +15063,10 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
-        <f t="shared" si="27"/>
-        <v>44409</v>
+        <f>EOMONTH(A493,1)</f>
+        <v>44439</v>
       </c>
       <c r="B494" s="20"/>
       <c r="C494" s="42">
@@ -15083,10 +15084,10 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
-        <f t="shared" si="27"/>
-        <v>44440</v>
+        <f>EOMONTH(A494,1)</f>
+        <v>44469</v>
       </c>
       <c r="B495" s="20"/>
       <c r="C495" s="42">
@@ -15104,10 +15105,10 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
-        <f t="shared" si="27"/>
-        <v>44470</v>
+        <f>EOMONTH(A495,1)</f>
+        <v>44500</v>
       </c>
       <c r="B496" s="20"/>
       <c r="C496" s="42">
@@ -15125,10 +15126,10 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
-        <f t="shared" si="27"/>
-        <v>44501</v>
+        <f>EOMONTH(A496,1)</f>
+        <v>44530</v>
       </c>
       <c r="B497" s="20"/>
       <c r="C497" s="42">
@@ -15146,10 +15147,10 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
-        <f t="shared" si="27"/>
-        <v>44531</v>
+        <f>EOMONTH(A497,1)</f>
+        <v>44561</v>
       </c>
       <c r="B498" s="20" t="s">
         <v>45</v>
@@ -15171,7 +15172,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="48" t="s">
         <v>376</v>
       </c>
@@ -15189,7 +15190,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>44562</v>
       </c>
@@ -15209,10 +15210,10 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
-        <f>EDATE(A500,1)</f>
-        <v>44593</v>
+        <f>EOMONTH(A500,1)</f>
+        <v>44620</v>
       </c>
       <c r="B501" s="20"/>
       <c r="C501" s="13">
@@ -15230,10 +15231,10 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
-        <f t="shared" ref="A502:A510" si="28">EDATE(A501,1)</f>
-        <v>44621</v>
+        <f>EOMONTH(A501,1)</f>
+        <v>44651</v>
       </c>
       <c r="B502" s="20"/>
       <c r="C502" s="13">
@@ -15251,10 +15252,10 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
-        <f t="shared" si="28"/>
-        <v>44652</v>
+        <f>EOMONTH(A502,1)</f>
+        <v>44681</v>
       </c>
       <c r="B503" s="20"/>
       <c r="C503" s="13">
@@ -15272,10 +15273,10 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
-        <f t="shared" si="28"/>
-        <v>44682</v>
+        <f>EOMONTH(A503,1)</f>
+        <v>44712</v>
       </c>
       <c r="B504" s="20"/>
       <c r="C504" s="13">
@@ -15293,10 +15294,10 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
-        <f t="shared" si="28"/>
-        <v>44713</v>
+        <f>EOMONTH(A504,1)</f>
+        <v>44742</v>
       </c>
       <c r="B505" s="20"/>
       <c r="C505" s="13">
@@ -15314,10 +15315,10 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
-        <f t="shared" si="28"/>
-        <v>44743</v>
+        <f>EOMONTH(A505,1)</f>
+        <v>44773</v>
       </c>
       <c r="B506" s="20"/>
       <c r="C506" s="13">
@@ -15335,10 +15336,10 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
-        <f t="shared" si="28"/>
-        <v>44774</v>
+        <f>EOMONTH(A506,1)</f>
+        <v>44804</v>
       </c>
       <c r="B507" s="20"/>
       <c r="C507" s="13">
@@ -15356,10 +15357,10 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
-        <f t="shared" si="28"/>
-        <v>44805</v>
+        <f>EOMONTH(A507,1)</f>
+        <v>44834</v>
       </c>
       <c r="B508" s="20"/>
       <c r="C508" s="13">
@@ -15377,20 +15378,16 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
-        <f t="shared" si="28"/>
-        <v>44835</v>
-      </c>
-      <c r="B509" s="20" t="s">
-        <v>45</v>
-      </c>
+        <f>EOMONTH(A508,1)</f>
+        <v>44865</v>
+      </c>
+      <c r="B509" s="20"/>
       <c r="C509" s="13">
         <v>1.25</v>
       </c>
-      <c r="D509" s="39">
-        <v>5</v>
-      </c>
+      <c r="D509" s="39"/>
       <c r="E509" s="9"/>
       <c r="F509" s="20"/>
       <c r="G509" s="13">
@@ -15402,40 +15399,56 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11">
-      <c r="A510" s="40"/>
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A510" s="40">
+        <f t="shared" ref="A510:A534" si="0">EOMONTH(A509,1)</f>
+        <v>44895</v>
+      </c>
       <c r="B510" s="20"/>
-      <c r="C510" s="13"/>
+      <c r="C510" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D510" s="39"/>
       <c r="E510" s="9"/>
       <c r="F510" s="20"/>
-      <c r="G510" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G510" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H510" s="39"/>
       <c r="I510" s="9"/>
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11">
-      <c r="A511" s="40"/>
-      <c r="B511" s="20"/>
-      <c r="C511" s="13"/>
-      <c r="D511" s="39"/>
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A511" s="40">
+        <f t="shared" si="0"/>
+        <v>44926</v>
+      </c>
+      <c r="B511" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C511" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D511" s="39">
+        <v>5</v>
+      </c>
       <c r="E511" s="9"/>
       <c r="F511" s="20"/>
-      <c r="G511" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G511" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H511" s="39"/>
       <c r="I511" s="9"/>
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11">
-      <c r="A512" s="40"/>
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A512" s="48" t="s">
+        <v>377</v>
+      </c>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
@@ -15450,165 +15463,447 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11">
-      <c r="A513" s="40"/>
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A513" s="40">
+        <f>EOMONTH(A511,1)</f>
+        <v>44957</v>
+      </c>
       <c r="B513" s="20"/>
-      <c r="C513" s="13"/>
+      <c r="C513" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D513" s="39"/>
       <c r="E513" s="9"/>
       <c r="F513" s="20"/>
-      <c r="G513" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G513" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H513" s="39"/>
       <c r="I513" s="9"/>
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11">
-      <c r="A514" s="40"/>
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A514" s="40">
+        <f t="shared" si="0"/>
+        <v>44985</v>
+      </c>
       <c r="B514" s="20"/>
-      <c r="C514" s="13"/>
+      <c r="C514" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D514" s="39"/>
       <c r="E514" s="9"/>
       <c r="F514" s="20"/>
-      <c r="G514" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G514" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H514" s="39"/>
       <c r="I514" s="9"/>
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11">
-      <c r="A515" s="40"/>
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A515" s="40">
+        <f t="shared" si="0"/>
+        <v>45016</v>
+      </c>
       <c r="B515" s="20"/>
-      <c r="C515" s="13"/>
+      <c r="C515" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D515" s="39"/>
       <c r="E515" s="9"/>
       <c r="F515" s="20"/>
-      <c r="G515" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G515" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H515" s="39"/>
       <c r="I515" s="9"/>
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11">
-      <c r="A516" s="40"/>
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A516" s="40">
+        <f t="shared" si="0"/>
+        <v>45046</v>
+      </c>
       <c r="B516" s="20"/>
-      <c r="C516" s="13"/>
+      <c r="C516" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D516" s="39"/>
       <c r="E516" s="9"/>
       <c r="F516" s="20"/>
-      <c r="G516" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G516" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H516" s="39"/>
       <c r="I516" s="9"/>
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11">
-      <c r="A517" s="40"/>
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A517" s="40">
+        <f t="shared" si="0"/>
+        <v>45077</v>
+      </c>
       <c r="B517" s="20"/>
-      <c r="C517" s="13"/>
+      <c r="C517" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D517" s="39"/>
       <c r="E517" s="9"/>
       <c r="F517" s="20"/>
-      <c r="G517" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G517" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H517" s="39"/>
       <c r="I517" s="9"/>
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11">
-      <c r="A518" s="40"/>
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A518" s="40">
+        <f t="shared" si="0"/>
+        <v>45107</v>
+      </c>
       <c r="B518" s="20"/>
-      <c r="C518" s="13"/>
+      <c r="C518" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D518" s="39"/>
       <c r="E518" s="9"/>
       <c r="F518" s="20"/>
-      <c r="G518" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G518" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H518" s="39"/>
       <c r="I518" s="9"/>
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11">
-      <c r="A519" s="40"/>
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A519" s="40">
+        <f t="shared" si="0"/>
+        <v>45138</v>
+      </c>
       <c r="B519" s="20"/>
-      <c r="C519" s="13"/>
+      <c r="C519" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D519" s="39"/>
       <c r="E519" s="9"/>
       <c r="F519" s="20"/>
-      <c r="G519" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G519" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H519" s="39"/>
       <c r="I519" s="9"/>
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11">
-      <c r="A520" s="40"/>
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A520" s="40">
+        <f t="shared" si="0"/>
+        <v>45169</v>
+      </c>
       <c r="B520" s="20"/>
-      <c r="C520" s="13"/>
+      <c r="C520" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D520" s="39"/>
       <c r="E520" s="9"/>
       <c r="F520" s="20"/>
-      <c r="G520" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G520" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H520" s="39"/>
       <c r="I520" s="9"/>
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11">
-      <c r="A521" s="40"/>
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A521" s="40">
+        <f t="shared" si="0"/>
+        <v>45199</v>
+      </c>
       <c r="B521" s="20"/>
-      <c r="C521" s="13"/>
+      <c r="C521" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D521" s="39"/>
       <c r="E521" s="9"/>
       <c r="F521" s="20"/>
-      <c r="G521" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G521" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H521" s="39"/>
       <c r="I521" s="9"/>
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11">
-      <c r="A522" s="40"/>
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A522" s="40">
+        <f t="shared" si="0"/>
+        <v>45230</v>
+      </c>
       <c r="B522" s="20"/>
-      <c r="C522" s="13"/>
+      <c r="C522" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D522" s="39"/>
       <c r="E522" s="9"/>
       <c r="F522" s="20"/>
-      <c r="G522" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G522" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H522" s="39"/>
       <c r="I522" s="9"/>
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
+    </row>
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A523" s="40">
+        <f t="shared" si="0"/>
+        <v>45260</v>
+      </c>
+      <c r="B523" s="20"/>
+      <c r="C523" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D523" s="39"/>
+      <c r="E523" s="9"/>
+      <c r="F523" s="20"/>
+      <c r="G523" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H523" s="39"/>
+      <c r="I523" s="9"/>
+      <c r="J523" s="11"/>
+      <c r="K523" s="20"/>
+    </row>
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A524" s="40">
+        <f t="shared" si="0"/>
+        <v>45291</v>
+      </c>
+      <c r="B524" s="20"/>
+      <c r="C524" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D524" s="39"/>
+      <c r="E524" s="9"/>
+      <c r="F524" s="20"/>
+      <c r="G524" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H524" s="39"/>
+      <c r="I524" s="9"/>
+      <c r="J524" s="11"/>
+      <c r="K524" s="20"/>
+    </row>
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A525" s="40">
+        <f t="shared" si="0"/>
+        <v>45322</v>
+      </c>
+      <c r="B525" s="20"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="39"/>
+      <c r="E525" s="9"/>
+      <c r="F525" s="20"/>
+      <c r="G525" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H525" s="39"/>
+      <c r="I525" s="9"/>
+      <c r="J525" s="11"/>
+      <c r="K525" s="20"/>
+    </row>
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A526" s="40">
+        <f t="shared" si="0"/>
+        <v>45351</v>
+      </c>
+      <c r="B526" s="20"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="39"/>
+      <c r="E526" s="9"/>
+      <c r="F526" s="20"/>
+      <c r="G526" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H526" s="39"/>
+      <c r="I526" s="9"/>
+      <c r="J526" s="11"/>
+      <c r="K526" s="20"/>
+    </row>
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A527" s="40">
+        <f t="shared" si="0"/>
+        <v>45382</v>
+      </c>
+      <c r="B527" s="20"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="39"/>
+      <c r="E527" s="9"/>
+      <c r="F527" s="20"/>
+      <c r="G527" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H527" s="39"/>
+      <c r="I527" s="9"/>
+      <c r="J527" s="11"/>
+      <c r="K527" s="20"/>
+    </row>
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A528" s="40">
+        <f t="shared" si="0"/>
+        <v>45412</v>
+      </c>
+      <c r="B528" s="20"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="39"/>
+      <c r="E528" s="9"/>
+      <c r="F528" s="20"/>
+      <c r="G528" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H528" s="39"/>
+      <c r="I528" s="9"/>
+      <c r="J528" s="11"/>
+      <c r="K528" s="20"/>
+    </row>
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A529" s="40">
+        <f t="shared" si="0"/>
+        <v>45443</v>
+      </c>
+      <c r="B529" s="20"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="39"/>
+      <c r="E529" s="9"/>
+      <c r="F529" s="20"/>
+      <c r="G529" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H529" s="39"/>
+      <c r="I529" s="9"/>
+      <c r="J529" s="11"/>
+      <c r="K529" s="20"/>
+    </row>
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A530" s="40">
+        <f t="shared" si="0"/>
+        <v>45473</v>
+      </c>
+      <c r="B530" s="20"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="39"/>
+      <c r="E530" s="9"/>
+      <c r="F530" s="20"/>
+      <c r="G530" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H530" s="39"/>
+      <c r="I530" s="9"/>
+      <c r="J530" s="11"/>
+      <c r="K530" s="20"/>
+    </row>
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A531" s="40">
+        <f t="shared" si="0"/>
+        <v>45504</v>
+      </c>
+      <c r="B531" s="20"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="39"/>
+      <c r="E531" s="9"/>
+      <c r="F531" s="20"/>
+      <c r="G531" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H531" s="39"/>
+      <c r="I531" s="9"/>
+      <c r="J531" s="11"/>
+      <c r="K531" s="20"/>
+    </row>
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A532" s="40">
+        <f t="shared" si="0"/>
+        <v>45535</v>
+      </c>
+      <c r="B532" s="20"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="39"/>
+      <c r="E532" s="9"/>
+      <c r="F532" s="20"/>
+      <c r="G532" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H532" s="39"/>
+      <c r="I532" s="9"/>
+      <c r="J532" s="11"/>
+      <c r="K532" s="20"/>
+    </row>
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A533" s="40">
+        <f t="shared" si="0"/>
+        <v>45565</v>
+      </c>
+      <c r="B533" s="20"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="39"/>
+      <c r="E533" s="9"/>
+      <c r="F533" s="20"/>
+      <c r="G533" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H533" s="39"/>
+      <c r="I533" s="9"/>
+      <c r="J533" s="11"/>
+      <c r="K533" s="20"/>
+    </row>
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A534" s="40">
+        <f t="shared" si="0"/>
+        <v>45596</v>
+      </c>
+      <c r="B534" s="15"/>
+      <c r="C534" s="42"/>
+      <c r="D534" s="43"/>
+      <c r="E534" s="9"/>
+      <c r="F534" s="15"/>
+      <c r="G534" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H534" s="43"/>
+      <c r="I534" s="9"/>
+      <c r="J534" s="12"/>
+      <c r="K534" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -15625,10 +15920,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15651,7 +15946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -15659,7 +15954,7 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.21875" customWidth="1"/>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
@@ -15673,20 +15968,20 @@
     <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="D1" s="59" t="s">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="J1" s="60" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -15715,7 +16010,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -15741,17 +16036,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -15765,14 +16060,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="J6" s="64"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -15799,7 +16094,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -15825,7 +16120,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -15851,7 +16146,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -15877,7 +16172,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -15903,7 +16198,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -15929,7 +16224,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -15955,7 +16250,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -15981,7 +16276,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16001,7 +16296,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16021,7 +16316,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16041,7 +16336,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16062,7 +16357,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16083,7 +16378,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16104,7 +16399,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16125,7 +16420,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16146,7 +16441,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16167,7 +16462,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16188,7 +16483,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16209,7 +16504,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16230,7 +16525,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16251,7 +16546,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16272,7 +16567,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16293,7 +16588,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16314,7 +16609,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16335,7 +16630,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16356,7 +16651,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16377,7 +16672,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16398,7 +16693,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16419,7 +16714,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16440,7 +16735,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -16461,7 +16756,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -16470,7 +16765,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -16479,7 +16774,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -16488,7 +16783,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -16497,7 +16792,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -16506,7 +16801,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -16515,7 +16810,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -16524,7 +16819,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -16533,7 +16828,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -16542,7 +16837,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -16551,7 +16846,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -16560,7 +16855,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -16569,7 +16864,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -16578,7 +16873,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -16587,7 +16882,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -16596,7 +16891,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -16605,7 +16900,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -16614,7 +16909,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -16623,7 +16918,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -16632,7 +16927,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -16641,7 +16936,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -16650,7 +16945,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -16659,7 +16954,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -16668,7 +16963,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -16677,7 +16972,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -16686,7 +16981,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -16695,7 +16990,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -16704,7 +16999,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -16713,7 +17008,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -16722,7 +17017,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
